--- a/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
+++ b/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="139">
   <si>
     <t>Objetivos de Medición</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Métricas</t>
   </si>
   <si>
-    <t>Tener una desviación miníma del - 15% en esfuerzo y costo de los servicios ofertados con el fin de asegurar la rentabilidad del negocio.</t>
+    <t>Tener una desviación miníma del - 15% en esfuerzo(proyectos generados) y costo de los servicios ofertados con el fin de asegurar la rentabilidad del negocio.</t>
   </si>
   <si>
     <t>Desviación de esfuerzo</t>
@@ -148,7 +148,7 @@
     <t>Mecanismo de Recolección y Almacenamiento</t>
   </si>
   <si>
-    <t>Ingresar al plan de proyecto en la sección estimación y tomar el valor total de los proyectos esperados anualmente y dividirlo entre los doce meses, almacenar dicho dato como esfuerzo planeado, adicional ir al sistema sos soft el cual tiene la cantidad de proyectos registrados y generar la sumatoria de los registros en color rojo, generar el calculo especificado previamente y almacenarlo en el concentrado de métricas en la pestaña esfuerzo</t>
+    <t>Ingresar al plan de proyecto en la sección estimación y tomar el valor total de los proyectos esperados anualmente y dividirlo entre los doce meses, almacenar dicho dato como esfuerzo planeado, adicional ir al documento control de ventas el cual tiene la cantidad de proyectos registrados y generar la sumatoria de los registros en que pertenezcan a la fecha de evaluacion, dicho resultado solo pertenece a la seccion de ventas, para obtener la sección de soporte se deberá ingresar a bitrix en la pestaña CRM, Activities ,presionar el botón mas y poner iniciales de persona a filtrar,  presionar el cuadro posicionado a la derecha del botón mas e ingresar nombre de persona y tareas completas (se puede filtrar por deadline), generar el calculo especificado previamente y almacenarlo en el concentrado de métricas en la pestaña esfuerzo</t>
   </si>
   <si>
     <t>Periodicidad</t>
@@ -178,18 +178,7 @@
     <t>A quien se presenta el reporte de métricas</t>
   </si>
   <si>
-    <r>
-      <t>Guía de análisis:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
+    <t>Guía de análisis: </t>
   </si>
   <si>
     <t>El análisis se hara en base a la grafica de Desviación</t>
@@ -384,20 +373,6 @@
     <t>A quien se le presenta el reporte de métricas</t>
   </si>
   <si>
-    <r>
-      <t>Guía de análisis:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Que el índice de crecimiento en ventas sea mayor o igual a 40% </t>
   </si>
   <si>
@@ -474,10 +449,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00;[RED]\$#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0.00;[RED]\$#,##0.00"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -551,6 +527,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -656,10 +633,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -690,7 +667,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -803,6 +780,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,6 +877,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1003,7 +988,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1320,11 +1305,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="44456943"/>
-        <c:axId val="37986921"/>
+        <c:axId val="30562196"/>
+        <c:axId val="54346513"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44456943"/>
+        <c:axId val="30562196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,14 +1326,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37986921"/>
+        <c:crossAx val="54346513"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37986921"/>
+        <c:axId val="54346513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1383,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44456943"/>
+        <c:crossAx val="30562196"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1428,7 +1413,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1442,17 +1427,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AB$38</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Costo planeado</c:v>
+                  <c:v>Esfuerzo planeado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,7 +1454,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1502,24 +1489,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$AB$39:$AB$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3287</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5344</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3423</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5467</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>532</c:v>
@@ -1528,7 +1515,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>900</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>324</c:v>
@@ -1542,17 +1529,19 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AC$38</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Costo real</c:v>
+                  <c:v>Esfuerzo real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1567,7 +1556,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1602,24 +1591,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$AC$39:$AC$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4076</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4088</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5076</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37000</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4980</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>533</c:v>
@@ -1628,7 +1617,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>342</c:v>
@@ -1642,17 +1631,19 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AD$38</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Desviacion del costo</c:v>
+                  <c:v>Desviacion de esfuerzo %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="9bbb59"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1658,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1702,36 +1693,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$AD$39:$AD$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>789</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1256</c:v>
+                  <c:v>-1.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3000</c:v>
+                  <c:v>-0.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-487</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>600</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,11 +1730,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="24000606"/>
-        <c:axId val="88253382"/>
+        <c:axId val="41599120"/>
+        <c:axId val="9022554"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24000606"/>
+        <c:axId val="41599120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,14 +1751,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88253382"/>
+        <c:crossAx val="9022554"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88253382"/>
+        <c:axId val="9022554"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +1808,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24000606"/>
+        <c:crossAx val="41599120"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1847,7 +1838,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2164,11 +2155,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="3118801"/>
-        <c:axId val="35554754"/>
+        <c:axId val="77456780"/>
+        <c:axId val="35198731"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3118801"/>
+        <c:axId val="77456780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,14 +2176,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="35554754"/>
+        <c:crossAx val="35198731"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35554754"/>
+        <c:axId val="35198731"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2233,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="3118801"/>
+        <c:crossAx val="77456780"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2272,7 +2263,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2589,11 +2580,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="14317685"/>
-        <c:axId val="80842333"/>
+        <c:axId val="77086402"/>
+        <c:axId val="77474356"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14317685"/>
+        <c:axId val="77086402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,14 +2601,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80842333"/>
+        <c:crossAx val="77474356"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80842333"/>
+        <c:axId val="77474356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2658,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="14317685"/>
+        <c:crossAx val="77086402"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2697,7 +2688,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2711,19 +2702,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
+              <c:f>'Desviacion de costos'!$AB$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Esfuerzo planeado</c:v>
+                  <c:v>Costo planeado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2738,7 +2727,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2773,24 +2762,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
+              <c:f>'Desviacion de costos'!$AB$39:$AB$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>3287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>234</c:v>
+                  <c:v>5344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>543</c:v>
+                  <c:v>3423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>344</c:v>
+                  <c:v>5467</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>532</c:v>
@@ -2799,7 +2788,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>324</c:v>
@@ -2813,19 +2802,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
+              <c:f>'Desviacion de costos'!$AC$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Esfuerzo real</c:v>
+                  <c:v>Costo real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2840,7 +2827,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2875,24 +2862,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
+              <c:f>'Desviacion de costos'!$AC$39:$AC$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>4076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>4088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>343</c:v>
+                  <c:v>5076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>331</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>434</c:v>
+                  <c:v>4980</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>533</c:v>
@@ -2901,7 +2888,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>342</c:v>
@@ -2915,19 +2902,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
+              <c:f>'Desviacion de costos'!$AD$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Desviacion de esfuerzo %</c:v>
+                  <c:v>Desviacion del costo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2942,7 +2927,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2977,36 +2962,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
+              <c:f>'Desviacion de costos'!$AD$39:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.2</c:v>
+                  <c:v>789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.81</c:v>
+                  <c:v>-1256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.11</c:v>
+                  <c:v>-3000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>-487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,11 +2999,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="29238868"/>
-        <c:axId val="34303961"/>
+        <c:axId val="80275608"/>
+        <c:axId val="24511347"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29238868"/>
+        <c:axId val="80275608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,14 +3020,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="34303961"/>
+        <c:crossAx val="24511347"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34303961"/>
+        <c:axId val="24511347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3077,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29238868"/>
+        <c:crossAx val="80275608"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3122,7 +3107,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3439,11 +3424,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="79945680"/>
-        <c:axId val="10903799"/>
+        <c:axId val="13841932"/>
+        <c:axId val="13891094"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79945680"/>
+        <c:axId val="13841932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,14 +3445,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="10903799"/>
+        <c:crossAx val="13891094"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10903799"/>
+        <c:axId val="13891094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3502,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79945680"/>
+        <c:crossAx val="13841932"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3552,15 +3537,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>380880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3568,8 +3553,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44032320" y="9348120"/>
-        <a:ext cx="5979600" cy="2883240"/>
+        <a:off x="43399800" y="10180440"/>
+        <a:ext cx="5860080" cy="2882160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3582,15 +3567,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>270360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3258720</xdr:colOff>
+      <xdr:colOff>3339000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2051640</xdr:rowOff>
+      <xdr:rowOff>2023920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3603,8 +3588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392040" y="698760"/>
-          <a:ext cx="5978520" cy="2112120"/>
+          <a:off x="461880" y="671760"/>
+          <a:ext cx="5937480" cy="2111400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3619,15 +3604,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3446640</xdr:colOff>
+      <xdr:colOff>3528000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7425720</xdr:colOff>
+      <xdr:colOff>7506000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2007360</xdr:rowOff>
+      <xdr:rowOff>1979640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3640,8 +3625,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6558480" y="756000"/>
-          <a:ext cx="3979080" cy="2010600"/>
+          <a:off x="6588360" y="729000"/>
+          <a:ext cx="3978000" cy="2009880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3661,15 +3646,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>366840</xdr:colOff>
+      <xdr:colOff>447840</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>338760</xdr:colOff>
+      <xdr:colOff>418680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3677,8 +3662,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43219080" y="9854280"/>
-        <a:ext cx="8100000" cy="3350520"/>
+        <a:off x="42580080" y="9827280"/>
+        <a:ext cx="7941240" cy="3349440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3691,15 +3676,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>270000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>317880</xdr:rowOff>
+      <xdr:rowOff>290880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2167560</xdr:colOff>
+      <xdr:colOff>2247480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2202480</xdr:rowOff>
+      <xdr:rowOff>2174400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3712,8 +3697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392040" y="889200"/>
-          <a:ext cx="4887360" cy="2435040"/>
+          <a:off x="461520" y="862200"/>
+          <a:ext cx="4846320" cy="2433960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3728,15 +3713,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2189160</xdr:colOff>
+      <xdr:colOff>2270160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>289440</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>205560</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2190960</xdr:rowOff>
+      <xdr:rowOff>2162880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3749,8 +3734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5301000" y="860760"/>
-          <a:ext cx="5968080" cy="2451960"/>
+          <a:off x="5330520" y="833760"/>
+          <a:ext cx="5877360" cy="2450880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3770,15 +3755,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>380880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3786,8 +3771,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="45531720" y="9071640"/>
-        <a:ext cx="5979240" cy="2883600"/>
+        <a:off x="44875440" y="9044640"/>
+        <a:ext cx="5860080" cy="2882520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3800,15 +3785,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>270000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4037760</xdr:colOff>
+      <xdr:colOff>4117680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2307600</xdr:rowOff>
+      <xdr:rowOff>2279520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3821,8 +3806,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392040" y="736920"/>
-          <a:ext cx="6757560" cy="2369160"/>
+          <a:off x="461520" y="709920"/>
+          <a:ext cx="6716520" cy="2368080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3837,15 +3822,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4703760</xdr:colOff>
+      <xdr:colOff>4784760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8501760</xdr:colOff>
+      <xdr:colOff>8581680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2285280</xdr:rowOff>
+      <xdr:rowOff>2257200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3858,8 +3843,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7815600" y="651240"/>
-          <a:ext cx="3798000" cy="2432520"/>
+          <a:off x="7845120" y="624240"/>
+          <a:ext cx="3796920" cy="2431440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3879,15 +3864,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>380880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3895,8 +3880,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42571800" y="9290880"/>
-        <a:ext cx="5979600" cy="2883240"/>
+        <a:off x="41946840" y="9263880"/>
+        <a:ext cx="5860080" cy="2882160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3909,15 +3894,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>270000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2194200</xdr:colOff>
+      <xdr:colOff>2274120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2344320</xdr:rowOff>
+      <xdr:rowOff>2316240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3930,8 +3915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392040" y="889200"/>
-          <a:ext cx="4914000" cy="2407320"/>
+          <a:off x="461520" y="862200"/>
+          <a:ext cx="4872960" cy="2406240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3946,15 +3931,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2220120</xdr:colOff>
+      <xdr:colOff>2301120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6368040</xdr:colOff>
+      <xdr:colOff>6447960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2359080</xdr:rowOff>
+      <xdr:rowOff>2331000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3967,8 +3952,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5331960" y="870120"/>
-          <a:ext cx="4147920" cy="2441160"/>
+          <a:off x="5361480" y="843120"/>
+          <a:ext cx="4146840" cy="2440080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3988,15 +3973,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>380880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4004,8 +3989,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42089400" y="9212760"/>
-        <a:ext cx="5979240" cy="2883240"/>
+        <a:off x="41466600" y="9185760"/>
+        <a:ext cx="5860440" cy="2882160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4018,15 +4003,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>979560</xdr:colOff>
+      <xdr:colOff>1060560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2586600</xdr:colOff>
+      <xdr:colOff>2666520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2365200</xdr:rowOff>
+      <xdr:rowOff>2337120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4039,8 +4024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1182600" y="698760"/>
-          <a:ext cx="4515840" cy="2428200"/>
+          <a:off x="1252080" y="671760"/>
+          <a:ext cx="4474800" cy="2427120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4060,15 +4045,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>380880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4076,8 +4061,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42368760" y="9127080"/>
-        <a:ext cx="5979240" cy="2883240"/>
+        <a:off x="41742360" y="9100080"/>
+        <a:ext cx="5860080" cy="2882160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4090,15 +4075,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>636840</xdr:colOff>
+      <xdr:colOff>717840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2063160</xdr:colOff>
+      <xdr:colOff>2143080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2280960</xdr:rowOff>
+      <xdr:rowOff>2252880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4111,8 +4096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="839880" y="727200"/>
-          <a:ext cx="4335120" cy="2315520"/>
+          <a:off x="909360" y="700200"/>
+          <a:ext cx="4294080" cy="2314440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4132,15 +4117,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1007640</xdr:colOff>
+      <xdr:colOff>1088640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4300920</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1706400</xdr:rowOff>
+      <xdr:rowOff>1678320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4153,8 +4138,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1007640" y="803520"/>
-          <a:ext cx="3293280" cy="1664640"/>
+          <a:off x="1088640" y="776520"/>
+          <a:ext cx="4353120" cy="1663560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4169,15 +4154,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1692000</xdr:colOff>
+      <xdr:colOff>1773000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5280480</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1771560</xdr:rowOff>
+      <xdr:rowOff>1743480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4190,8 +4175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886800" y="756000"/>
-          <a:ext cx="3588480" cy="1777320"/>
+          <a:off x="6910560" y="729000"/>
+          <a:ext cx="4968000" cy="1776240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4211,15 +4196,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>270000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>538920</xdr:colOff>
+      <xdr:colOff>618840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2150280</xdr:rowOff>
+      <xdr:rowOff>2122200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4232,8 +4217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="870120"/>
-          <a:ext cx="4490640" cy="2213280"/>
+          <a:off x="270000" y="843120"/>
+          <a:ext cx="4442040" cy="2212200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4256,17 +4241,17 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.71255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.56275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1093117408907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4372469635628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7692307692308"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,7 +4281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
@@ -4460,20 +4445,20 @@
   </sheetPr>
   <dimension ref="1:47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="109.425101214575"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.15789473684211"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.2631578947368"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="108.267206477733"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="24.7004048582996"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.2064777327935"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.4696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.2064777327935"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15795,7 +15780,7 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="12" customFormat="false" ht="115.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="27" t="s">
         <v>40</v>
@@ -24033,10 +24018,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -25059,17 +25044,17 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="28" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B21" s="29" t="s">
+    <row r="21" s="29" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="B21" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="32" t="s">
         <v>53</v>
       </c>
       <c r="AA22" s="0"/>
@@ -25078,7 +25063,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -25090,7 +25075,7 @@
       <c r="AD23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -25203,7 +25188,7 @@
       <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="34" t="n">
+      <c r="AD39" s="35" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
@@ -25218,7 +25203,7 @@
       <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="34" t="n">
+      <c r="AD40" s="35" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
@@ -25233,7 +25218,7 @@
       <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="34" t="n">
+      <c r="AD41" s="35" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
@@ -25248,7 +25233,7 @@
       <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="34" t="n">
+      <c r="AD42" s="35" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
@@ -25263,7 +25248,7 @@
       <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="34" t="n">
+      <c r="AD43" s="35" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
@@ -25278,7 +25263,7 @@
       <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="34" t="n">
+      <c r="AD44" s="35" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
@@ -25293,7 +25278,7 @@
       <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="34" t="n">
+      <c r="AD45" s="35" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
@@ -25308,7 +25293,7 @@
       <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="34" t="n">
+      <c r="AD46" s="35" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
@@ -25323,7 +25308,7 @@
       <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="34" t="n">
+      <c r="AD47" s="35" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -25359,19 +25344,19 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="89.421052631579"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.15789473684211"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.2631578947368"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="88.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="24.7004048582996"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.2064777327935"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.4696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.2064777327935"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25588,20 +25573,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>53</v>
       </c>
       <c r="AA21" s="0"/>
@@ -25610,7 +25595,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -25622,7 +25607,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -25735,13 +25720,13 @@
       <c r="AA39" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AB39" s="35" t="n">
+      <c r="AB39" s="36" t="n">
         <v>3287</v>
       </c>
-      <c r="AC39" s="35" t="n">
+      <c r="AC39" s="36" t="n">
         <v>4076</v>
       </c>
-      <c r="AD39" s="36" t="n">
+      <c r="AD39" s="37" t="n">
         <f aca="false">(AC39-AB39)</f>
         <v>789</v>
       </c>
@@ -25750,13 +25735,13 @@
       <c r="AA40" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AB40" s="35" t="n">
+      <c r="AB40" s="36" t="n">
         <v>5344</v>
       </c>
-      <c r="AC40" s="35" t="n">
+      <c r="AC40" s="36" t="n">
         <v>4088</v>
       </c>
-      <c r="AD40" s="36" t="n">
+      <c r="AD40" s="37" t="n">
         <f aca="false">(AC40-AB40)</f>
         <v>-1256</v>
       </c>
@@ -25765,13 +25750,13 @@
       <c r="AA41" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB41" s="35" t="n">
+      <c r="AB41" s="36" t="n">
         <v>3423</v>
       </c>
-      <c r="AC41" s="35" t="n">
+      <c r="AC41" s="36" t="n">
         <v>5076</v>
       </c>
-      <c r="AD41" s="36" t="n">
+      <c r="AD41" s="37" t="n">
         <f aca="false">(AC41-AB41)</f>
         <v>1653</v>
       </c>
@@ -25780,13 +25765,13 @@
       <c r="AA42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AB42" s="35" t="n">
+      <c r="AB42" s="36" t="n">
         <v>40000</v>
       </c>
-      <c r="AC42" s="35" t="n">
+      <c r="AC42" s="36" t="n">
         <v>37000</v>
       </c>
-      <c r="AD42" s="36" t="n">
+      <c r="AD42" s="37" t="n">
         <f aca="false">(AC42-AB42)</f>
         <v>-3000</v>
       </c>
@@ -25795,13 +25780,13 @@
       <c r="AA43" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB43" s="35" t="n">
+      <c r="AB43" s="36" t="n">
         <v>5467</v>
       </c>
-      <c r="AC43" s="35" t="n">
+      <c r="AC43" s="36" t="n">
         <v>4980</v>
       </c>
-      <c r="AD43" s="36" t="n">
+      <c r="AD43" s="37" t="n">
         <f aca="false">(AC43-AB43)</f>
         <v>-487</v>
       </c>
@@ -25810,13 +25795,13 @@
       <c r="AA44" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AB44" s="35" t="n">
+      <c r="AB44" s="36" t="n">
         <v>532</v>
       </c>
-      <c r="AC44" s="35" t="n">
+      <c r="AC44" s="36" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="36" t="n">
+      <c r="AD44" s="37" t="n">
         <f aca="false">(AC44-AB44)</f>
         <v>1</v>
       </c>
@@ -25825,13 +25810,13 @@
       <c r="AA45" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AB45" s="35" t="n">
+      <c r="AB45" s="36" t="n">
         <v>534</v>
       </c>
-      <c r="AC45" s="35" t="n">
+      <c r="AC45" s="36" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="36" t="n">
+      <c r="AD45" s="37" t="n">
         <f aca="false">(AC45-AB45)</f>
         <v>0</v>
       </c>
@@ -25840,13 +25825,13 @@
       <c r="AA46" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AB46" s="35" t="n">
+      <c r="AB46" s="36" t="n">
         <v>900</v>
       </c>
-      <c r="AC46" s="35" t="n">
+      <c r="AC46" s="36" t="n">
         <v>1500</v>
       </c>
-      <c r="AD46" s="36" t="n">
+      <c r="AD46" s="37" t="n">
         <f aca="false">(AC46-AB46)</f>
         <v>600</v>
       </c>
@@ -25855,13 +25840,13 @@
       <c r="AA47" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB47" s="35" t="n">
+      <c r="AB47" s="36" t="n">
         <v>324</v>
       </c>
-      <c r="AC47" s="35" t="n">
+      <c r="AC47" s="36" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="36" t="n">
+      <c r="AD47" s="37" t="n">
         <f aca="false">(AC47-AB47)</f>
         <v>18</v>
       </c>
@@ -25901,18 +25886,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="126.287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.15789473684211"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.2631578947368"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="124.866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="24.7004048582996"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.2064777327935"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.4696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.2064777327935"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="14" t="str">
@@ -26123,20 +26108,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="40" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="0"/>
@@ -26145,7 +26130,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -26157,7 +26142,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -26276,7 +26261,7 @@
       <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="34" t="n">
+      <c r="AD39" s="35" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
@@ -26291,7 +26276,7 @@
       <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="34" t="n">
+      <c r="AD40" s="35" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
@@ -26306,7 +26291,7 @@
       <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="34" t="n">
+      <c r="AD41" s="35" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
@@ -26321,7 +26306,7 @@
       <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="34" t="n">
+      <c r="AD42" s="35" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
@@ -26336,7 +26321,7 @@
       <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="34" t="n">
+      <c r="AD43" s="35" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
@@ -26351,7 +26336,7 @@
       <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="34" t="n">
+      <c r="AD44" s="35" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
@@ -26366,7 +26351,7 @@
       <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="34" t="n">
+      <c r="AD45" s="35" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
@@ -26381,7 +26366,7 @@
       <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="34" t="n">
+      <c r="AD46" s="35" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
@@ -26396,7 +26381,7 @@
       <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="34" t="n">
+      <c r="AD47" s="35" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -26436,18 +26421,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="93"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.15789473684211"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.2631578947368"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="91.9311740890688"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="24.7004048582996"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.2064777327935"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.4696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.2064777327935"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="14" t="str">
@@ -26527,7 +26512,7 @@
       <c r="B8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>93</v>
       </c>
       <c r="AA8" s="0"/>
@@ -26539,7 +26524,7 @@
       <c r="B9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0"/>
@@ -26549,7 +26534,7 @@
       <c r="B10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0"/>
       <c r="AC10" s="0"/>
@@ -26658,20 +26643,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="0"/>
@@ -26680,7 +26665,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -26692,7 +26677,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -26811,7 +26796,7 @@
       <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="34" t="n">
+      <c r="AD39" s="35" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
@@ -26826,7 +26811,7 @@
       <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="34" t="n">
+      <c r="AD40" s="35" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
@@ -26841,7 +26826,7 @@
       <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="34" t="n">
+      <c r="AD41" s="35" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
@@ -26856,7 +26841,7 @@
       <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="34" t="n">
+      <c r="AD42" s="35" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
@@ -26871,7 +26856,7 @@
       <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="34" t="n">
+      <c r="AD43" s="35" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
@@ -26886,7 +26871,7 @@
       <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="34" t="n">
+      <c r="AD44" s="35" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
@@ -26901,7 +26886,7 @@
       <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="34" t="n">
+      <c r="AD45" s="35" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
@@ -26916,7 +26901,7 @@
       <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="34" t="n">
+      <c r="AD46" s="35" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
@@ -26931,7 +26916,7 @@
       <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="34" t="n">
+      <c r="AD47" s="35" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -26971,18 +26956,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="87.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.15789473684211"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.2631578947368"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="86.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="24.7004048582996"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.2064777327935"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.4696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.2064777327935"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="14" t="str">
@@ -27193,20 +27178,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="0"/>
@@ -27215,7 +27200,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -27227,7 +27212,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -27346,7 +27331,7 @@
       <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="34" t="n">
+      <c r="AD39" s="35" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
@@ -27361,7 +27346,7 @@
       <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="34" t="n">
+      <c r="AD40" s="35" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
@@ -27376,7 +27361,7 @@
       <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="34" t="n">
+      <c r="AD41" s="35" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
@@ -27391,7 +27376,7 @@
       <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="34" t="n">
+      <c r="AD42" s="35" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
@@ -27406,7 +27391,7 @@
       <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="34" t="n">
+      <c r="AD43" s="35" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
@@ -27421,7 +27406,7 @@
       <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="34" t="n">
+      <c r="AD44" s="35" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
@@ -27436,7 +27421,7 @@
       <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="34" t="n">
+      <c r="AD45" s="35" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
@@ -27451,7 +27436,7 @@
       <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="34" t="n">
+      <c r="AD46" s="35" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
@@ -27466,7 +27451,7 @@
       <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="34" t="n">
+      <c r="AD47" s="35" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -27506,18 +27491,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="90.7165991902834"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.15789473684211"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.2631578947368"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="89.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="24.7004048582996"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.2064777327935"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.4696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.2064777327935"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="14" t="str">
@@ -27728,20 +27713,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="0"/>
@@ -27750,7 +27735,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -27762,7 +27747,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -27881,7 +27866,7 @@
       <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="34" t="n">
+      <c r="AD39" s="35" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
@@ -27896,7 +27881,7 @@
       <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="34" t="n">
+      <c r="AD40" s="35" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
@@ -27911,7 +27896,7 @@
       <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="34" t="n">
+      <c r="AD41" s="35" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
@@ -27926,7 +27911,7 @@
       <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="34" t="n">
+      <c r="AD42" s="35" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
@@ -27941,7 +27926,7 @@
       <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="34" t="n">
+      <c r="AD43" s="35" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
@@ -27956,7 +27941,7 @@
       <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="34" t="n">
+      <c r="AD44" s="35" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
@@ -27971,7 +27956,7 @@
       <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="34" t="n">
+      <c r="AD45" s="35" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
@@ -27986,7 +27971,7 @@
       <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="34" t="n">
+      <c r="AD46" s="35" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
@@ -28001,7 +27986,7 @@
       <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="34" t="n">
+      <c r="AD47" s="35" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -28041,96 +28026,96 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.421052631579"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.9959514170041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.1902834008097"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="141" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28143,16 +28128,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>46</v>
       </c>
     </row>
@@ -28165,10 +28150,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="48" t="s">
         <v>114</v>
       </c>
     </row>
@@ -28181,33 +28166,33 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="53"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="47"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="s">
+      <c r="B21" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="27" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="55" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="53" t="s">
+      <c r="B22" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="27" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="56" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="54" t="s">
+      <c r="B23" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -28239,82 +28224,82 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.1457489878543"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2064777327935"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55" t="str">
+      <c r="B1" s="57" t="str">
         <f aca="false">'Objetivos de Medición'!C9</f>
         <v>Índice de Satisfacción</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="46" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" customFormat="false" ht="184.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="Q6" s="0" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="57"/>
-    </row>
-    <row r="5" customFormat="false" ht="184.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="Q6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="U6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">AVERAGE(R7:U7)</f>
@@ -28335,13 +28320,13 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="P8" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">AVERAGE(R8:U8)</f>
@@ -28361,22 +28346,22 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="51"/>
+      <c r="A10" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -28389,16 +28374,16 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
     </row>
@@ -28411,10 +28396,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>114</v>
       </c>
     </row>
@@ -28427,39 +28412,39 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="47"/>
+      <c r="A18" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="61"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="59"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
+      <c r="B20" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="s">
+      <c r="B21" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="27" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54" t="s">
+      <c r="B22" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
+++ b/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="144">
   <si>
     <t>Objetivos de Medición</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Métricas</t>
   </si>
   <si>
-    <t>Tener una desviación miníma del - 15% en esfuerzo(proyectos generados) y costo de los servicios ofertados con el fin de asegurar la rentabilidad del negocio.</t>
+    <t>Tener una desviación mínima del – 15% y máxima del 15% en esfuerzo(tickets generados) y una desviación menor o igual al 0% de costo de los servicios ofertados con el fin de asegurar la rentabilidad del negocio.</t>
   </si>
   <si>
     <t>Desviación de esfuerzo</t>
@@ -52,10 +52,10 @@
     <t>Apego a Productos</t>
   </si>
   <si>
-    <t>Auditorias Físicas</t>
+    <t>Auditorías Físicas</t>
   </si>
   <si>
-    <t>Auditorias Funcionales</t>
+    <t>Auditorías Funcionales</t>
   </si>
   <si>
     <t>Obtener una satisfacción del cliente superior al 90% en todas las encuestas de satisfacción aplicadas.</t>
@@ -64,7 +64,7 @@
     <t>Índice de Satisfacción</t>
   </si>
   <si>
-    <t>Obtener un crecimiento anual del 40% representado por un total de 2,424,000</t>
+    <t>Obtener un crecimiento anual del 30% representado por un total de 3,300,000 pesos</t>
   </si>
   <si>
     <t>Crecimiento anual de ventas</t>
@@ -148,7 +148,7 @@
     <t>Mecanismo de Recolección y Almacenamiento</t>
   </si>
   <si>
-    <t>Ingresar al plan de proyecto en la sección estimación y tomar el valor total de los proyectos esperados anualmente y dividirlo entre los doce meses, almacenar dicho dato como esfuerzo planeado, adicional ir al documento control de ventas el cual tiene la cantidad de proyectos registrados y generar la sumatoria de los registros en que pertenezcan a la fecha de evaluacion, dicho resultado solo pertenece a la seccion de ventas, para obtener la sección de soporte se deberá ingresar a bitrix en la pestaña CRM, Activities ,presionar el botón mas y poner iniciales de persona a filtrar,  presionar el cuadro posicionado a la derecha del botón mas e ingresar nombre de persona y tareas completas (se puede filtrar por deadline), generar el calculo especificado previamente y almacenarlo en el concentrado de métricas en la pestaña esfuerzo</t>
+    <t>Ingresar al plan de proyecto en la sección estimación y tomar el valor total de los proyectos esperados anualmente y dividirlo entre los doce meses, almacenar dicho dato como esfuerzo planeado, adicional solicitar a administración la cantidad de servicios ejecutados durante el mes evaluado por parte del area de ventas, dicho resultado solo pertenece a la seccion de ventas, para obtener la sección de soporte se deberá ingresar a bitrix en la pestaña CRM, Activities ,presionar el botón mas y poner iniciales de persona a filtrar,  presionar el cuadro posicionado a la derecha del botón mas e ingresar nombre de persona y tareas completas (se puede filtrar por deadline), generar el calculo especificado previamente y almacenarlo en el concentrado de métricas en la pestaña esfuerzo</t>
   </si>
   <si>
     <t>Periodicidad</t>
@@ -184,19 +184,19 @@
     <t>El análisis se hara en base a la grafica de Desviación</t>
   </si>
   <si>
-    <t>Si la desviación es mayor o igual al 0%</t>
+    <t>Si la desviación se encuentra entre el 15% y -15%</t>
   </si>
   <si>
     <t>Se continua con el seguimiento</t>
   </si>
   <si>
-    <t>Si la desviación es menor al 0 % y mayor al -15%</t>
+    <t>Si la desviación se encuentra entre el 16% y el 30% positivo o negativo</t>
   </si>
   <si>
     <t>Se monitorea y analiza con dirección, se toman acciones para reducir la desviación</t>
   </si>
   <si>
-    <t>Si la desviación es menor al -15% </t>
+    <t>Si la es superior al 31% positivo o negativo</t>
   </si>
   <si>
     <t>Se analiza con direccion para tomar medidas inmeditas para corregir la desviacion y considerar actualizar la estimación del servicio</t>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>Tomar el costo estimado en el plan de proyecto dividido entre doce meses como costo planeado y tomar el total gastado entre servicios y sueldos de personal registrados en el mes, dicho dato será otorgado por administración aplicar formula de desviación en porcentaje y plasmar en el concentrado de métricas en la pestaña costos.</t>
+  </si>
+  <si>
+    <t>Si la desviación es menor o igual al 0%</t>
+  </si>
+  <si>
+    <t>Si la desviación es mayor al 0% y menor al 15%</t>
+  </si>
+  <si>
+    <t>Si la desviación es mayor al 15%</t>
   </si>
   <si>
     <t>Desviacion del costo</t>
@@ -349,19 +358,19 @@
     <t>Cálculo/Fórmula</t>
   </si>
   <si>
-    <t>Total esperado anual</t>
+    <t>Venta por empleado</t>
   </si>
   <si>
     <t>Venta por empleado = (sumatoria de ventas por empleado), Venta mensual =  suma de ventas por empleados</t>
   </si>
   <si>
-    <t>Acumulado Total</t>
+    <t>Venta mensual</t>
   </si>
   <si>
-    <t>Total obtenido mensual</t>
+    <t>Venta esperada</t>
   </si>
   <si>
-    <t>Tomando los datos del documento control de ventas sumar el total por empleado y registrarlo en la pestaña ventas del concentrado sección venta por empleado, adicional sumar el total hasta el año y comprarlo contra lo planeado anualmente.</t>
+    <t>Solicitar la información de ventas por persona y venta total del mes al area de administración y comparar con lo planeado del mes</t>
   </si>
   <si>
     <t>Reunión de monitoreo</t>
@@ -373,19 +382,19 @@
     <t>A quien se le presenta el reporte de métricas</t>
   </si>
   <si>
-    <t>Que el índice de crecimiento en ventas sea mayor o igual a 40% </t>
+    <t>Que el índice de crecimiento en ventas sea mayor o igual a 30% </t>
   </si>
   <si>
     <t>Seguimiento</t>
   </si>
   <si>
-    <t>Que el índice de ventas sea menor que 10% y mayor o igual a 39%</t>
+    <t>Que el índice de ventas sea mayor que 0% y menor o igual a 29%</t>
   </si>
   <si>
     <t>Crear plan de acción para aumentar el porcentaje de cumplimiento en ventas.</t>
   </si>
   <si>
-    <t>Que el índice de ventas sea menor o igual a 9%</t>
+    <t>Que el índice de ventas sea menor o igual a  -1%</t>
   </si>
   <si>
     <t>Crear un plan de acción en base a los malos resultados obtenidos.</t>
@@ -395,6 +404,12 @@
   </si>
   <si>
     <t>¿Qué índice de satisfacción obtuvimos de parte del cliente?                                             </t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>Indice</t>
@@ -449,11 +464,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00;[RED]\$#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="\$#,##0.00;[RED]\$#,##0.00"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -527,7 +541,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -582,7 +595,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -600,7 +613,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFFF420E"/>
       </patternFill>
     </fill>
     <fill>
@@ -941,7 +954,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF878787"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FFC0504D"/>
@@ -970,12 +983,12 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF9BBB59"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -988,7 +1001,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1305,11 +1318,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="30562196"/>
-        <c:axId val="54346513"/>
+        <c:axId val="43011516"/>
+        <c:axId val="75210812"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30562196"/>
+        <c:axId val="43011516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,14 +1339,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54346513"/>
+        <c:crossAx val="75210812"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54346513"/>
+        <c:axId val="75210812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1396,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30562196"/>
+        <c:crossAx val="43011516"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1413,7 +1426,529 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>proceso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Cotización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Solicitud de compra</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carta de aceptación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tickets de servicio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="19630287"/>
+        <c:axId val="78389862"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="19630287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="78389862"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78389862"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="19630287"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>proceso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Cotización</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Solicitud de compra</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carta de aceptación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tickets de servicio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="28372345"/>
+        <c:axId val="37362143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="28372345"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="37362143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37362143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="28372345"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>organizacional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Catalogo de servicios</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plan de calidad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plan de Métricas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Plan de Configuración</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Plan de proyecto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Reporte de Monitoreo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="42279733"/>
+        <c:axId val="84999845"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="42279733"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="84999845"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84999845"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="42279733"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1730,11 +2265,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="41599120"/>
-        <c:axId val="9022554"/>
+        <c:axId val="72758563"/>
+        <c:axId val="17641063"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41599120"/>
+        <c:axId val="72758563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,14 +2286,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9022554"/>
+        <c:crossAx val="17641063"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9022554"/>
+        <c:axId val="17641063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +2343,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41599120"/>
+        <c:crossAx val="72758563"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1838,7 +2373,347 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>física</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Elementos de configuración física</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control de cambios organizacional</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elementos de Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="63798159"/>
+        <c:axId val="11055228"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="63798159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="11055228"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11055228"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="63798159"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>física</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Elementos de configuración física</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control de cambios organizacional</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elementos de Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="96905746"/>
+        <c:axId val="6642126"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96905746"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="6642126"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6642126"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="96905746"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2155,11 +3030,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="77456780"/>
-        <c:axId val="35198731"/>
+        <c:axId val="43626212"/>
+        <c:axId val="83915955"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77456780"/>
+        <c:axId val="43626212"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,14 +3051,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="35198731"/>
+        <c:crossAx val="83915955"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35198731"/>
+        <c:axId val="83915955"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,7 +3108,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77456780"/>
+        <c:crossAx val="43626212"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2263,7 +3138,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2277,18 +3152,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Esfuerzo planeado</c:v>
+                  <c:v>funcional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2304,93 +3179,155 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Ventas</c:v>
+                  <c:v>Entregables</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
+                  <c:v>Control de cambios</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
+                  <c:v>Línea base</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>234</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="38246763"/>
+        <c:axId val="37989125"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38246763"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="37989125"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37989125"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="38246763"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Esfuerzo real</c:v>
+                  <c:v>Columna H</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2406,93 +3343,111 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Ventas</c:v>
+                  <c:v>Enero</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
+                  <c:v>Febrero</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diseño</c:v>
+                  <c:v>Marzo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
+                  <c:v>Abril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Entrega</c:v>
+                  <c:v>Mayo</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
+                  <c:v>Junio</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Metricas</c:v>
+                  <c:v>Julio</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Calidad</c:v>
+                  <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Configuración</c:v>
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>275000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>275000.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>434</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>533</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>534</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>342</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
+              <c:f>label 1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Desviacion de esfuerzo %</c:v>
+                  <c:v>Columna J</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2508,71 +3463,1825 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Ventas</c:v>
+                  <c:v>Enero</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
+                  <c:v>Febrero</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diseño</c:v>
+                  <c:v>Marzo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
+                  <c:v>Abril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Entrega</c:v>
+                  <c:v>Mayo</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
+                  <c:v>Junio</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Metricas</c:v>
+                  <c:v>Julio</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Calidad</c:v>
+                  <c:v>Agosto</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Configuración</c:v>
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>179572.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134033.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="38922699"/>
+        <c:axId val="22661669"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38922699"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="22661669"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="22661669"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="38922699"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>satisfacción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="58902944"/>
+        <c:axId val="8772579"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="58902944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="8772579"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8772579"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="58902944"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-9.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.0485436893204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="25517500"/>
+        <c:axId val="65063831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="25517500"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="65063831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65063831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="25517500"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>satisfacción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="78716724"/>
+        <c:axId val="22023250"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78716724"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="22023250"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="22023250"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="78716724"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entrega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$AB$39:$AB$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.2</c:v>
+                  <c:v>3287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.81</c:v>
+                  <c:v>5344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>3423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.11</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>5467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$AC$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costo real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entrega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$AC$39:$AC$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$AD$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviacion del costo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entrega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$AD$39:$AD$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,11 +5289,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="77086402"/>
-        <c:axId val="77474356"/>
+        <c:axId val="74558672"/>
+        <c:axId val="55225941"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77086402"/>
+        <c:axId val="74558672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,14 +5310,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77474356"/>
+        <c:crossAx val="55225941"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77474356"/>
+        <c:axId val="55225941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +5367,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77086402"/>
+        <c:crossAx val="74558672"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2688,7 +5397,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2702,17 +5411,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AB$38</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Costo planeado</c:v>
+                  <c:v>Totales planeados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2727,71 +5438,89 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Ventas</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diseño</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Entrega</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Metricas</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Calidad</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Configuración</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$AB$39:$AB$47</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3287</c:v>
+                  <c:v>140990.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5344</c:v>
+                  <c:v>140990.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>532</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>534</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>324</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,17 +5531,19 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AC$38</c:f>
+              <c:f>label 1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Costo real</c:v>
+                  <c:v>totales Reales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2827,71 +5558,89 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Ventas</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diseño</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Entrega</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Metricas</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Calidad</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Configuración</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$AC$39:$AC$47</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4076</c:v>
+                  <c:v>91828.107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4088</c:v>
+                  <c:v>81057.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5076</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4980</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>533</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>534</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>342</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,17 +5651,19 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AD$38</c:f>
+              <c:f>label 2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Desviacion del costo</c:v>
+                  <c:v>desviación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2927,71 +5678,925 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Ventas</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diseño</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Entrega</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Metricas</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Calidad</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Configuración</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$AD$39:$AD$47</c:f>
+              <c:f>2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-34.8694425637073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-42.5083491251416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="95716606"/>
+        <c:axId val="85823728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="95716606"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="85823728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85823728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="95716606"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esfuerzo planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entrega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>789</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1256</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3000</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-487</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esfuerzo real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entrega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviacion de esfuerzo %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9bbb59"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entrega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>600</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,11 +6604,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="80275608"/>
-        <c:axId val="24511347"/>
+        <c:axId val="49687267"/>
+        <c:axId val="48619620"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80275608"/>
+        <c:axId val="49687267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,14 +6625,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24511347"/>
+        <c:crossAx val="48619620"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24511347"/>
+        <c:axId val="48619620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +6682,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80275608"/>
+        <c:crossAx val="49687267"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3094,6 +6699,516 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>apego_interno</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>apego_interno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Procesos'!$D$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Procesos'!$D$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="64396625"/>
+        <c:axId val="95150869"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64396625"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="95150869"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95150869"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="64396625"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>apego_interno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Prospectación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Garantía</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="86157974"/>
+        <c:axId val="36009774"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="86157974"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="36009774"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36009774"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="86157974"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>procesos_organizacional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación anual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Seguimiento</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cambios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="6221400"/>
+        <c:axId val="21610384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="6221400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="21610384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="21610384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="6221400"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:spPr>
@@ -3424,11 +7539,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="13841932"/>
-        <c:axId val="13891094"/>
+        <c:axId val="74937707"/>
+        <c:axId val="12295392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13841932"/>
+        <c:axId val="74937707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,14 +7560,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13891094"/>
+        <c:crossAx val="12295392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13891094"/>
+        <c:axId val="12295392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,7 +7617,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13841932"/>
+        <c:crossAx val="74937707"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3537,15 +7652,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>498600</xdr:colOff>
+      <xdr:colOff>714600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>380880</xdr:colOff>
+      <xdr:colOff>594000</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3553,8 +7668,73 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43399800" y="10180440"/>
-        <a:ext cx="5860080" cy="2882160"/>
+        <a:off x="43615800" y="10108440"/>
+        <a:ext cx="5857200" cy="2879280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>610560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6317640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2356200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3670920" y="709560"/>
+        <a:ext cx="5707080" cy="2405880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>663840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>631800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>59040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="42796080" y="9755280"/>
+        <a:ext cx="7938360" cy="3346560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3567,103 +7747,404 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>270360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:colOff>485640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>485640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3339000</xdr:colOff>
+      <xdr:colOff>3679200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2023920</xdr:rowOff>
+      <xdr:rowOff>2214720</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="4 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="461880" y="671760"/>
-          <a:ext cx="5937480" cy="2111400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="677160" y="1607400"/>
+        <a:ext cx="6062400" cy="1729080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>594000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="45091440" y="8972640"/>
+        <a:ext cx="5857200" cy="2879640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3528000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:colOff>28080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7506000</xdr:colOff>
+      <xdr:colOff>5784480</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Apego Interno"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3088440" y="4514040"/>
+        <a:ext cx="5756400" cy="3237120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2664720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1979640</xdr:rowOff>
+      <xdr:rowOff>1701720</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="6 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6588360" y="729000"/>
-          <a:ext cx="3978000" cy="2009880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Apego Interno"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="214200" y="783360"/>
+        <a:ext cx="5510880" cy="1716840"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2925720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7929000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2134440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5986080" y="849600"/>
+        <a:ext cx="5003280" cy="2083320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>447840</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>714600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>418680</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>594000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="8" name="3 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42580080" y="9827280"/>
-        <a:ext cx="7941240" cy="3349440"/>
+        <a:off x="42162840" y="9191880"/>
+        <a:ext cx="5857200" cy="2879280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5787000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3089520" y="4520160"/>
+        <a:ext cx="5757840" cy="3236040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2060280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2175480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="214560" y="944640"/>
+        <a:ext cx="4906080" cy="2183040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2351160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6220440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2368080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5411520" y="992880"/>
+        <a:ext cx="3869280" cy="2327400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>594000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>191160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="41682600" y="9113760"/>
+        <a:ext cx="5857560" cy="2879280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29520</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5785200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3089880" y="4548240"/>
+        <a:ext cx="5755680" cy="2995200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2247840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2109600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="214560" y="754200"/>
+        <a:ext cx="5093640" cy="2117160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>594000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="41958360" y="9028080"/>
+        <a:ext cx="5857200" cy="2879280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3676,103 +8157,94 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>290880</xdr:rowOff>
+      <xdr:colOff>1426320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2247480</xdr:colOff>
+      <xdr:colOff>2244240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2174400</xdr:rowOff>
+      <xdr:rowOff>2224440</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="1 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="461520" y="862200"/>
-          <a:ext cx="4846320" cy="2433960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2270160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2162880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="4 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5330520" y="833760"/>
-          <a:ext cx="5877360" cy="2450880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1617840" y="1021680"/>
+        <a:ext cx="3686760" cy="1964520"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>498600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>705240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>380880</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1603440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="3 Gráfico"/>
+        <xdr:cNvPr id="17" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44875440" y="9044640"/>
-        <a:ext cx="5860080" cy="2882520"/>
+        <a:off x="705240" y="787320"/>
+        <a:ext cx="4759920" cy="1577880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>39600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4132800" y="5027040"/>
+        <a:ext cx="5761080" cy="3232800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3784,450 +8256,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>105840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4117680</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1176120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2279520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="2 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="461520" y="709920"/>
-          <a:ext cx="6716520" cy="2368080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4784760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8581680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2257200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="3 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7845120" y="624240"/>
-          <a:ext cx="3796920" cy="2431440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>498600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>380880</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>2209320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="3 Gráfico"/>
+        <xdr:cNvPr id="19" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41946840" y="9263880"/>
-        <a:ext cx="5860080" cy="2882160"/>
+        <a:off x="105840" y="1013400"/>
+        <a:ext cx="5163480" cy="2129040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2274120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2316240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="2 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="461520" y="862200"/>
-          <a:ext cx="4872960" cy="2406240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2301120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6447960</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2331000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="4 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5361480" y="843120"/>
-          <a:ext cx="4146840" cy="2440080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>498600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>380880</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="3 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="41466600" y="9185760"/>
-        <a:ext cx="5860440" cy="2882160"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1060560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2666520</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2337120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="2 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1252080" y="671760"/>
-          <a:ext cx="4474800" cy="2427120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>498600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>380880</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="3 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="41742360" y="9100080"/>
-        <a:ext cx="5860080" cy="2882160"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>717840</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2143080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2252880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="2 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="909360" y="700200"/>
-          <a:ext cx="4294080" cy="2314440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1088640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1678320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="19 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1088640" y="776520"/>
-          <a:ext cx="4353120" cy="1663560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1773000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1743480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="20 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6910560" y="729000"/>
-          <a:ext cx="4968000" cy="1776240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2122200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="1 Imagen" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="270000" y="843120"/>
-          <a:ext cx="4442040" cy="2212200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4241,7 +8295,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4281,7 +8335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
@@ -4326,7 +8380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
@@ -4445,8 +8499,8 @@
   </sheetPr>
   <dimension ref="1:47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25343,8 +29397,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25584,7 +29638,7 @@
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="31" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>53</v>
@@ -25596,7 +29650,7 @@
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="33" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>55</v>
@@ -25608,7 +29662,7 @@
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>57</v>
@@ -25713,7 +29767,7 @@
         <v>73</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25880,8 +29934,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25914,7 +29968,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -25926,7 +29980,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -25975,10 +30029,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -25987,7 +30041,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -25997,7 +30051,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
@@ -26017,7 +30071,7 @@
     </row>
     <row r="12" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -26076,7 +30130,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -26119,10 +30173,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -26131,10 +30185,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -26143,10 +30197,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -26415,8 +30469,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26449,7 +30503,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -26461,7 +30515,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -26510,10 +30564,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -26522,7 +30576,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="43"/>
       <c r="AA9" s="0"/>
@@ -26532,7 +30586,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="43"/>
       <c r="AA10" s="0"/>
@@ -26552,7 +30606,7 @@
     </row>
     <row r="12" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -26611,7 +30665,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -26654,10 +30708,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -26666,10 +30720,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -26678,10 +30732,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -26950,8 +31004,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26972,7 +31026,7 @@
       </c>
       <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C7</f>
-        <v>Auditorias Físicas</v>
+        <v>Auditorías Físicas</v>
       </c>
       <c r="AA1" s="0"/>
       <c r="AB1" s="0"/>
@@ -26984,7 +31038,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -26996,7 +31050,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -27045,10 +31099,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -27057,7 +31111,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -27067,7 +31121,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
@@ -27087,7 +31141,7 @@
     </row>
     <row r="12" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -27146,7 +31200,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -27189,10 +31243,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -27201,10 +31255,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -27213,10 +31267,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -27485,8 +31539,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27507,7 +31561,7 @@
       </c>
       <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C8</f>
-        <v>Auditorias Funcionales</v>
+        <v>Auditorías Funcionales</v>
       </c>
       <c r="AA1" s="0"/>
       <c r="AB1" s="0"/>
@@ -27519,7 +31573,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -27531,7 +31585,7 @@
         <v>69</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -27580,10 +31634,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -27592,7 +31646,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -27602,7 +31656,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
@@ -27622,7 +31676,7 @@
     </row>
     <row r="12" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -27681,7 +31735,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -27724,10 +31778,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -27736,10 +31790,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -27748,10 +31802,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -28020,8 +32074,8 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28044,7 +32098,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28052,7 +32106,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28076,26 +32130,26 @@
         <v>32</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B10" s="51"/>
     </row>
@@ -28107,7 +32161,7 @@
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B12" s="52"/>
     </row>
@@ -28146,15 +32200,15 @@
         <v>43</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28173,26 +32227,26 @@
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="56" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -28224,8 +32278,8 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28249,15 +32303,15 @@
         <v>26</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28267,8 +32321,13 @@
       <c r="B4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="184.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60"/>
+      <c r="A5" s="60" t="s">
+        <v>126</v>
+      </c>
       <c r="B5" s="60"/>
+      <c r="C5" s="0" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="48" t="s">
@@ -28276,19 +32335,19 @@
       </c>
       <c r="B6" s="48"/>
       <c r="Q6" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28296,10 +32355,10 @@
         <v>32</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">AVERAGE(R7:U7)</f>
@@ -28320,13 +32379,13 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">AVERAGE(R8:U8)</f>
@@ -28353,7 +32412,7 @@
     </row>
     <row r="10" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="52" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B10" s="52"/>
     </row>
@@ -28392,15 +32451,15 @@
         <v>43</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28419,32 +32478,32 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="61" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="54" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
+++ b/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" state="visible" r:id="rId2"/>
@@ -133,7 +133,7 @@
     <t>Esfuerzo planeado</t>
   </si>
   <si>
-    <t>Desviación de Esfuerzo (#proyectos)  = Esfuerzo real – Esfuerzo planeado</t>
+    <t>Desviación de Esfuerzo (#tickets)  = Esfuerzo real – Esfuerzo planeado</t>
   </si>
   <si>
     <t>Esfuerzo real</t>
@@ -361,16 +361,16 @@
     <t>Venta por empleado</t>
   </si>
   <si>
-    <t>Venta por empleado = (sumatoria de ventas por empleado), Venta mensual =  suma de ventas por empleados</t>
+    <t>Venta por empleado = (sumatoria de ventas por empleado), Venta mensual =  suma de ventas por empleados, planeado por vendedor = planeado mensual / número de vendedores</t>
   </si>
   <si>
     <t>Venta mensual</t>
   </si>
   <si>
-    <t>Venta esperada</t>
+    <t>planeado por vendedor</t>
   </si>
   <si>
-    <t>Solicitar la información de ventas por persona y venta total del mes al area de administración y comparar con lo planeado del mes</t>
+    <t>Solicitar la información de ventas por persona y venta total del mes al area de administración y comparar con lo planeado del mes, dichos resultados se almacenan en el concentrado de métricas en la pestaña crecimiento anual de ventas donde se ingresa lo planeado y real por vendedor y planeado y real del mes</t>
   </si>
   <si>
     <t>Reunión de monitoreo</t>
@@ -464,12 +464,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00;[RED]\$#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -549,6 +550,16 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -861,27 +872,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,39 +904,39 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,7 +994,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF4F81BD"/>
@@ -1001,7 +1012,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1318,11 +1329,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="43011516"/>
-        <c:axId val="75210812"/>
+        <c:axId val="74800907"/>
+        <c:axId val="46258348"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43011516"/>
+        <c:axId val="74800907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,14 +1350,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75210812"/>
+        <c:crossAx val="46258348"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75210812"/>
+        <c:axId val="46258348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,954 +1407,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43011516"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>proceso</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Cotización</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Solicitud de compra</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Carta de aceptación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tickets de servicio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="19630287"/>
-        <c:axId val="78389862"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="19630287"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="78389862"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="78389862"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="19630287"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>proceso</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Cotización</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Solicitud de compra</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Carta de aceptación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tickets de servicio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="28372345"/>
-        <c:axId val="37362143"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="28372345"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="37362143"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="37362143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="28372345"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>organizacional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Catalogo de servicios</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Plan de calidad</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Plan de Métricas</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Plan de Configuración</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Plan de proyecto</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Reporte de Monitoreo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="42279733"/>
-        <c:axId val="84999845"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="42279733"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="84999845"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84999845"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="42279733"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviacion de esfuerzo %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="72758563"/>
-        <c:axId val="17641063"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="72758563"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="17641063"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="17641063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="72758563"/>
+        <c:crossAx val="74800907"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2377,6 +1441,26 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Esfuerzo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2391,7 +1475,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>física</c:v>
+                  <c:v>totales_planeados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2416,18 +1500,42 @@
             <c:strRef>
               <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Elementos de configuración física</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Control de cambios organizacional</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Línea base</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Elementos de Configuración</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2437,18 +1545,162 @@
               <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totales_reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,16 +1708,36 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="63798159"/>
-        <c:axId val="11055228"/>
+        <c:axId val="95480204"/>
+        <c:axId val="51076918"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63798159"/>
+        <c:axId val="95480204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2476,14 +1748,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="11055228"/>
+        <c:crossAx val="51076918"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11055228"/>
+        <c:axId val="51076918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,6 +1770,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Horas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2508,7 +1800,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63798159"/>
+        <c:crossAx val="95480204"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2561,7 +1853,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>física</c:v>
+                  <c:v>desviación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2575,7 +1867,6 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2586,18 +1877,42 @@
             <c:strRef>
               <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Elementos de configuración física</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Control de cambios organizacional</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Línea base</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Elementos de Configuración</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2607,18 +1922,42 @@
               <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>-9.09090909090909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>-15.0485436893204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,16 +1965,36 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="96905746"/>
-        <c:axId val="6642126"/>
+        <c:axId val="32692412"/>
+        <c:axId val="86064147"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96905746"/>
+        <c:axId val="32692412"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2646,14 +2005,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="6642126"/>
+        <c:crossAx val="86064147"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6642126"/>
+        <c:axId val="86064147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,6 +2027,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Porcentaje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2678,7 +2057,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="96905746"/>
+        <c:crossAx val="32692412"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2727,19 +2106,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
+              <c:f>'Desviacion de costos'!$AB$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Esfuerzo planeado</c:v>
+                  <c:v>Costo planeado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2754,7 +2131,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2789,24 +2166,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
+              <c:f>'Desviacion de costos'!$AB$39:$AB$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>3287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>234</c:v>
+                  <c:v>5344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>543</c:v>
+                  <c:v>3423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>344</c:v>
+                  <c:v>5467</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>532</c:v>
@@ -2815,7 +2192,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>324</c:v>
@@ -2829,19 +2206,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
+              <c:f>'Desviacion de costos'!$AC$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Esfuerzo real</c:v>
+                  <c:v>Costo real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2856,7 +2231,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2891,24 +2266,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
+              <c:f>'Desviacion de costos'!$AC$39:$AC$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>4076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>4088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>343</c:v>
+                  <c:v>5076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>331</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>434</c:v>
+                  <c:v>4980</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>533</c:v>
@@ -2917,7 +2292,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>342</c:v>
@@ -2931,19 +2306,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
+              <c:f>'Desviacion de costos'!$AD$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Desviacion de esfuerzo %</c:v>
+                  <c:v>Desviacion del costo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2958,7 +2331,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2993,36 +2366,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
+              <c:f>'Desviacion de costos'!$AD$39:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.2</c:v>
+                  <c:v>789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.81</c:v>
+                  <c:v>-1256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.11</c:v>
+                  <c:v>-3000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>-487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3030,11 +2403,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="43626212"/>
-        <c:axId val="83915955"/>
+        <c:axId val="33343299"/>
+        <c:axId val="69841994"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43626212"/>
+        <c:axId val="33343299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,14 +2424,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83915955"/>
+        <c:crossAx val="69841994"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83915955"/>
+        <c:axId val="69841994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,7 +2481,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43626212"/>
+        <c:crossAx val="33343299"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3142,6 +2515,26 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Costos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3156,7 +2549,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>funcional</c:v>
+                  <c:v>Totales planeados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3181,15 +2574,42 @@
             <c:strRef>
               <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Entregables</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Control de cambios</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Línea base</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3199,15 +2619,162 @@
               <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>83.5</c:v>
+                  <c:v>140990.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>140990.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totales Reales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91828.107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81057.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,16 +2782,36 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="38246763"/>
-        <c:axId val="37989125"/>
+        <c:axId val="69577455"/>
+        <c:axId val="97142940"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38246763"/>
+        <c:axId val="69577455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3235,14 +2822,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37989125"/>
+        <c:crossAx val="97142940"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37989125"/>
+        <c:axId val="97142940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3257,6 +2844,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Pesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3267,7 +2874,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38246763"/>
+        <c:crossAx val="69577455"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3306,6 +2913,26 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>desviación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3320,7 +2947,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Columna H</c:v>
+                  <c:v>desviación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3334,7 +2961,6 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3347,40 +2973,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Enero</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Febrero</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Marzo</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Abril</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Mayo</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Junio</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Julio</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Agosto</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Octubre</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3392,130 +3018,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>275000</c:v>
+                  <c:v>-34.8694425637073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275000.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Columna J</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>179572.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>134033.44</c:v>
+                  <c:v>-42.5083491251416</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
@@ -3553,16 +3059,36 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="38922699"/>
-        <c:axId val="22661669"/>
+        <c:axId val="86272566"/>
+        <c:axId val="48884789"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38922699"/>
+        <c:axId val="86272566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3573,14 +3099,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22661669"/>
+        <c:crossAx val="48884789"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22661669"/>
+        <c:axId val="48884789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3595,6 +3121,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Porcentaje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3605,7 +3151,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38922699"/>
+        <c:crossAx val="86272566"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3654,18 +3200,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 0</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>satisfacción</c:v>
+                  <c:v>Esfuerzo planeado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3681,215 +3227,93 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Enero</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Febrero</c:v>
+                  <c:v>Planeacion</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Marzo</c:v>
+                  <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Abril</c:v>
+                  <c:v>Desarrollo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Mayo</c:v>
+                  <c:v>Entrega</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Junio</c:v>
+                  <c:v>Monitoreo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Julio</c:v>
+                  <c:v>Metricas</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Agosto</c:v>
+                  <c:v>Calidad</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Total</c:v>
+                  <c:v>Configuración</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>98.8</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.572</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.686</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
+                  <c:v>324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="58902944"/>
-        <c:axId val="8772579"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="58902944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="8772579"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="8772579"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="58902944"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 0</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>totales</c:v>
+                  <c:v>Esfuerzo real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3905,111 +3329,93 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Planeacion</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Desarrollo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Entrega</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>Monitoreo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>Metricas</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>Calidad</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>Configuración</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>143</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 1</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>totales</c:v>
+                  <c:v>Desviacion de esfuerzo %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="9bbb59"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4025,1263 +3431,71 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Planeacion</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Desarrollo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Entrega</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>Monitoreo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>Metricas</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>Calidad</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>Configuración</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-9.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-15.0485436893204</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="25517500"/>
-        <c:axId val="65063831"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="25517500"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="65063831"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="65063831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="25517500"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>satisfacción</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>98.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.572</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95.686</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="78716724"/>
-        <c:axId val="22023250"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="78716724"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="22023250"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="22023250"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="78716724"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AB$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Costo planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$AB$39:$AB$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3287</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5344</c:v>
+                  <c:v>-1.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3423</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>-0.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5467</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AC$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Costo real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$AC$39:$AC$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4076</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5076</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4980</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AD$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviacion del costo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$AD$39:$AD$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>789</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1653</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-487</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>600</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5289,11 +3503,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="74558672"/>
-        <c:axId val="55225941"/>
+        <c:axId val="4510432"/>
+        <c:axId val="99262572"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74558672"/>
+        <c:axId val="4510432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5310,14 +3524,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55225941"/>
+        <c:crossAx val="99262572"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55225941"/>
+        <c:axId val="99262572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,7 +3581,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74558672"/>
+        <c:crossAx val="4510432"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -5397,7 +3611,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5415,7 +3629,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Totales planeados</c:v>
+                  <c:v>apego_interno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5440,42 +3654,18 @@
             <c:strRef>
               <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Prospectación</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Implementación</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>Garantía</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5485,726 +3675,30 @@
               <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>140990.82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140990.82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>78.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>totales Reales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>91828.107</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81057.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-34.8694425637073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-42.5083491251416</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-        </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="95716606"/>
-        <c:axId val="85823728"/>
+        <c:axId val="90630137"/>
+        <c:axId val="34407780"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95716606"/>
+        <c:axId val="90630137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6220,14 +3714,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85823728"/>
+        <c:crossAx val="34407780"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85823728"/>
+        <c:axId val="34407780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6252,7 +3746,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="95716606"/>
+        <c:crossAx val="90630137"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6287,7 +3781,177 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>procesos_organizacional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación anual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Seguimiento</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cambios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="38707988"/>
+        <c:axId val="97068992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38707988"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="97068992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97068992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="38707988"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -6604,11 +4268,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="49687267"/>
-        <c:axId val="48619620"/>
+        <c:axId val="75751264"/>
+        <c:axId val="50504652"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49687267"/>
+        <c:axId val="75751264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6625,14 +4289,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48619620"/>
+        <c:crossAx val="50504652"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48619620"/>
+        <c:axId val="50504652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6682,7 +4346,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49687267"/>
+        <c:crossAx val="75751264"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -6712,7 +4376,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -6726,11 +4390,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>apego_interno</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>apego_interno</c:v>
+                  <c:v>proceso</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6753,41 +4417,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Procesos'!$D$4:$G$4</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Cotización</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>Solicitud de compra</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>Carta de aceptación</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>Tickets de servicio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$D$17:$G$17</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6795,11 +4459,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="64396625"/>
-        <c:axId val="95150869"/>
+        <c:axId val="98971484"/>
+        <c:axId val="19287053"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64396625"/>
+        <c:axId val="98971484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6815,14 +4479,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="95150869"/>
+        <c:crossAx val="19287053"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95150869"/>
+        <c:axId val="19287053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6847,7 +4511,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64396625"/>
+        <c:crossAx val="98971484"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6882,7 +4546,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -6900,7 +4564,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>apego_interno</c:v>
+                  <c:v>organizacional</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6925,18 +4589,24 @@
             <c:strRef>
               <c:f>categories</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Prospectación</c:v>
+                  <c:v>Catalogo de servicios</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ventas</c:v>
+                  <c:v>Plan de calidad</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Implementación</c:v>
+                  <c:v>Plan de Métricas</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Garantía</c:v>
+                  <c:v>Plan de Configuración</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Plan de proyecto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Reporte de Monitoreo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6946,7 +4616,7 @@
               <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -6954,10 +4624,16 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.57</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6965,11 +4641,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="86157974"/>
-        <c:axId val="36009774"/>
+        <c:axId val="1308640"/>
+        <c:axId val="41107141"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86157974"/>
+        <c:axId val="1308640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6985,14 +4661,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36009774"/>
+        <c:crossAx val="41107141"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36009774"/>
+        <c:axId val="41107141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7017,7 +4693,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86157974"/>
+        <c:crossAx val="1308640"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7052,177 +4728,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>procesos_organizacional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación anual</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Seguimiento</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cambios</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="6221400"/>
-        <c:axId val="21610384"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="6221400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="21610384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="21610384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="6221400"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -7539,11 +5045,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="74937707"/>
-        <c:axId val="12295392"/>
+        <c:axId val="51401376"/>
+        <c:axId val="78700240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74937707"/>
+        <c:axId val="51401376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7560,14 +5066,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="12295392"/>
+        <c:crossAx val="78700240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12295392"/>
+        <c:axId val="78700240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7617,7 +5123,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74937707"/>
+        <c:crossAx val="51401376"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -7647,20 +5153,1565 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>física</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Elementos de configuración física</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control de cambios organizacional</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elementos de Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="74540785"/>
+        <c:axId val="68338021"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74540785"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="68338021"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68338021"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="74540785"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esfuerzo planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entrega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esfuerzo real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entrega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviacion de esfuerzo %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9bbb59"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Desarrollo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entrega</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitoreo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Configuración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="76935428"/>
+        <c:axId val="8153268"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="76935428"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="8153268"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8153268"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Axis Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="76935428"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>funcional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Entregables</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Control de cambios</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Línea base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="20260911"/>
+        <c:axId val="243880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="20260911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="243880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="243880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="20260911"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Columna H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275000.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Columna J</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>179572.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134033.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="39885256"/>
+        <c:axId val="92012857"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39885256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="92012857"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92012857"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="39885256"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>satisfacción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="30449093"/>
+        <c:axId val="40832645"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="30449093"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="40832645"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40832645"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="30449093"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>satisfacción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="722501"/>
+        <c:axId val="19764909"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="722501"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="19764909"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19764909"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="722501"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>741600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
+      <xdr:colOff>620640</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7668,8 +6719,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43615800" y="10108440"/>
-        <a:ext cx="5857200" cy="2879280"/>
+        <a:off x="43642800" y="10099440"/>
+        <a:ext cx="5856840" cy="2878920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7681,16 +6732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>610560</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6317640</xdr:colOff>
+      <xdr:colOff>2554920</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2356200</xdr:rowOff>
+      <xdr:rowOff>2207880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7698,12 +6749,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3670920" y="709560"/>
-        <a:ext cx="5707080" cy="2405880"/>
+        <a:off x="339120" y="753840"/>
+        <a:ext cx="5276160" cy="2213280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2647800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>239040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6784920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2149920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5708160" y="998280"/>
+        <a:ext cx="4137120" cy="1910880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7717,24 +6798,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>663840</xdr:colOff>
+      <xdr:colOff>690840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
+      <xdr:colOff>658440</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42796080" y="9755280"/>
-        <a:ext cx="7938360" cy="3346560"/>
+        <a:off x="42823080" y="9746280"/>
+        <a:ext cx="7938000" cy="3346200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7747,28 +6828,58 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>485640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3679200</xdr:colOff>
+      <xdr:colOff>2544480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2214720</xdr:rowOff>
+      <xdr:rowOff>2345400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="677160" y="1607400"/>
-        <a:ext cx="6062400" cy="1729080"/>
+        <a:off x="557280" y="1283040"/>
+        <a:ext cx="5047560" cy="2184120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3031560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7402320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2314440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6091920" y="1219680"/>
+        <a:ext cx="4370760" cy="2216520"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7782,24 +6893,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>741600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>620640</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="6" name="3 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="45091440" y="8972640"/>
-        <a:ext cx="5857200" cy="2879640"/>
+        <a:off x="45118440" y="8963640"/>
+        <a:ext cx="5856840" cy="2879280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7811,25 +6922,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>49680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5784480</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:colOff>2691360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1692360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Apego Interno"/>
+        <xdr:cNvPr id="7" name="Apego Interno"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3088440" y="4514040"/>
-        <a:ext cx="5756400" cy="3237120"/>
+        <a:off x="241200" y="774360"/>
+        <a:ext cx="5510520" cy="1716480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7841,59 +6952,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2952720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2664720</xdr:colOff>
+      <xdr:colOff>7955640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1701720</xdr:rowOff>
+      <xdr:rowOff>2125080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Apego Interno"/>
+        <xdr:cNvPr id="8" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="214200" y="783360"/>
-        <a:ext cx="5510880" cy="1716840"/>
+        <a:off x="6013080" y="840600"/>
+        <a:ext cx="5002920" cy="2082960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2925720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7929000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2134440</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5986080" y="849600"/>
-        <a:ext cx="5003280" cy="2083320"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7907,24 +6988,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>741600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
+      <xdr:colOff>620640</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="3 Gráfico"/>
+        <xdr:cNvPr id="9" name="3 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42162840" y="9191880"/>
-        <a:ext cx="5857200" cy="2879280"/>
+        <a:off x="42189840" y="9182880"/>
+        <a:ext cx="5856840" cy="2878920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7936,25 +7017,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5787000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:colOff>2086920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2166120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="10" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3089520" y="4520160"/>
-        <a:ext cx="5757840" cy="3236040"/>
+        <a:off x="241560" y="935640"/>
+        <a:ext cx="4905720" cy="2182680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7966,46 +7047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>23040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2378160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2060280</xdr:colOff>
+      <xdr:colOff>6247080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2175480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="214560" y="944640"/>
-        <a:ext cx="4906080" cy="2183040"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2351160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6220440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2368080</xdr:rowOff>
+      <xdr:rowOff>2358720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8013,12 +7064,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5411520" y="992880"/>
-        <a:ext cx="3869280" cy="2327400"/>
+        <a:off x="5438520" y="983880"/>
+        <a:ext cx="3868920" cy="2327040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8032,15 +7083,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>741600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
+      <xdr:colOff>620640</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8048,8 +7099,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41682600" y="9113760"/>
-        <a:ext cx="5857560" cy="2879280"/>
+        <a:off x="41709600" y="9104760"/>
+        <a:ext cx="5857200" cy="2878920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8061,16 +7112,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5785200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:colOff>2274480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2100240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8078,42 +7129,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3089880" y="4548240"/>
-        <a:ext cx="5755680" cy="2995200"/>
+        <a:off x="241560" y="745200"/>
+        <a:ext cx="5093280" cy="2116800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>23040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2247840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2109600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="214560" y="754200"/>
-        <a:ext cx="5093640" cy="2117160"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8127,24 +7148,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>741600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:colOff>620640</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="3 Gráfico"/>
+        <xdr:cNvPr id="14" name="3 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41958360" y="9028080"/>
-        <a:ext cx="5857200" cy="2879280"/>
+        <a:off x="41985360" y="9019080"/>
+        <a:ext cx="5856840" cy="2878920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8157,24 +7178,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1426320</xdr:colOff>
+      <xdr:colOff>1453320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>259920</xdr:rowOff>
+      <xdr:rowOff>250920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2244240</xdr:colOff>
+      <xdr:colOff>2270880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2224440</xdr:rowOff>
+      <xdr:rowOff>2215080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvPr id="15" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1617840" y="1021680"/>
-        <a:ext cx="3686760" cy="1964520"/>
+        <a:off x="1644840" y="1012680"/>
+        <a:ext cx="3686400" cy="1964160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8192,24 +7213,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>705240</xdr:colOff>
+      <xdr:colOff>732240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>327600</xdr:colOff>
+      <xdr:colOff>354240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1603440</xdr:rowOff>
+      <xdr:rowOff>1594080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvPr id="16" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="705240" y="787320"/>
-        <a:ext cx="4759920" cy="1577880"/>
+        <a:off x="732240" y="778320"/>
+        <a:ext cx="4759560" cy="1577520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8227,24 +7248,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
+      <xdr:colOff>630000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvPr id="17" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4132800" y="5027040"/>
-        <a:ext cx="5761080" cy="3232800"/>
+        <a:off x="4159800" y="5018040"/>
+        <a:ext cx="5760720" cy="3232440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8257,24 +7278,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>132840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1176120</xdr:colOff>
+      <xdr:colOff>1202760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2209320</xdr:rowOff>
+      <xdr:rowOff>2199960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvPr id="18" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="105840" y="1013400"/>
-        <a:ext cx="5163480" cy="2129040"/>
+        <a:off x="132840" y="1004400"/>
+        <a:ext cx="5163120" cy="2128680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8294,7 +7315,7 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8499,8 +7520,8 @@
   </sheetPr>
   <dimension ref="1:47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29397,8 +28418,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29934,8 +28955,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30469,8 +29490,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31004,7 +30025,7 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -31539,7 +30560,7 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -32074,8 +31095,8 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32278,7 +31299,7 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
+++ b/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,13 +17,15 @@
     <sheet name="Apego a Auditorias Funcionales" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Crecimiento anual de ventas" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Índice de Satisfacción" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Producto vendido" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Actividades a tiempo" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="167">
   <si>
     <t>Objetivos de Medición</t>
   </si>
@@ -62,6 +64,18 @@
   </si>
   <si>
     <t>Índice de Satisfacción</t>
+  </si>
+  <si>
+    <t>Obtener el producto mas vendido dentro de la sección de ventas</t>
+  </si>
+  <si>
+    <t>Producto vendido</t>
+  </si>
+  <si>
+    <t>Revisar las actividades que han sido cerradas a tiempo</t>
+  </si>
+  <si>
+    <t>Actividades a tiempo</t>
   </si>
   <si>
     <t>Obtener un crecimiento anual del 30% representado por un total de 3,300,000 pesos</t>
@@ -459,18 +473,74 @@
   <si>
     <t>Crear un plan de acción en base a las bajas calificaciones</t>
   </si>
+  <si>
+    <t>Conocer cual es el producto mas vendido en la empresa</t>
+  </si>
+  <si>
+    <t>¿Cual es el producto mas vendido en la empresa?                                             </t>
+  </si>
+  <si>
+    <t>Productos vendidos=(sumatoria del mes por producto)</t>
+  </si>
+  <si>
+    <t>Ingresar a bitrix en la pestaña CRM , reportes y ventas por productos, los resultados pasarlos al concentrado de métricas en pestaña productos</t>
+  </si>
+  <si>
+    <t>El análisis se realiza por productos vendidos</t>
+  </si>
+  <si>
+    <t>El producto se ha vendido mas de una vez en el año</t>
+  </si>
+  <si>
+    <t>El producto se ha vendido una vez en el año</t>
+  </si>
+  <si>
+    <t>Promocionar mas el producto para aumentar su venta</t>
+  </si>
+  <si>
+    <t>El producto no se ha vendido en ningún momento </t>
+  </si>
+  <si>
+    <t>Conocer cuantas actividades son resueltas en tiempo planificado</t>
+  </si>
+  <si>
+    <t>¿Qué porcentaje de actividades se resolvieron en el tiempo planeado?                                             </t>
+  </si>
+  <si>
+    <t>Porcentaje de actividades a tiempo =(actividades a tiempo entre actividades a tiempo mas actividades fuera de tiempo)*100</t>
+  </si>
+  <si>
+    <t>Ingresar a bitrix24 en los filtros  de actividades de CRM filtrando las actividades por persona y contabilizar las realizadas antes del deadline y adicional las resueltas fuera del dead line, el valor se deberá almacenar en el concentrado de métrica en pestaña actividades</t>
+  </si>
+  <si>
+    <t>El análisis se realiza por todas las actividades planeadas</t>
+  </si>
+  <si>
+    <t>Que el índice de actividades sea mayor o igual a 70% </t>
+  </si>
+  <si>
+    <t>Que el índice de actividades sea menor que 50% y mayor o igual a 70%</t>
+  </si>
+  <si>
+    <t>Crear plan de acción para aumentar el promedio de actividades en tiempo.</t>
+  </si>
+  <si>
+    <t>Que el índice de actividades sea menor a 50%</t>
+  </si>
+  <si>
+    <t>Crear un plan de acción en base a las actividades fuera de tiempo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00;[RED]\$#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -553,11 +623,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -588,6 +654,16 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -872,27 +948,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -904,39 +980,39 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1012,7 +1088,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1329,11 +1405,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="74800907"/>
-        <c:axId val="46258348"/>
+        <c:axId val="86010434"/>
+        <c:axId val="96082186"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74800907"/>
+        <c:axId val="86010434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,14 +1426,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46258348"/>
+        <c:crossAx val="96082186"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46258348"/>
+        <c:axId val="96082186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1483,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74800907"/>
+        <c:crossAx val="86010434"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1437,4318 +1513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Esfuerzo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>totales_planeados</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>totales_reales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="95480204"/>
-        <c:axId val="51076918"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="95480204"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Mes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="51076918"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51076918"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Horas</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="95480204"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-9.09090909090909</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-15.0485436893204</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="32692412"/>
-        <c:axId val="86064147"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="32692412"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Mes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="86064147"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="86064147"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Porcentaje</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="32692412"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AB$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Costo planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$AB$39:$AB$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3287</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5344</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3423</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5467</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AC$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Costo real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$AC$39:$AC$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4076</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5076</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4980</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AD$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviacion del costo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$AD$39:$AD$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>789</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1653</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-487</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="33343299"/>
-        <c:axId val="69841994"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="33343299"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="69841994"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="69841994"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="33343299"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Costos</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Totales planeados</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>140990.82</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>140990.82</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>totales Reales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>91828.107</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81057.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="69577455"/>
-        <c:axId val="97142940"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="69577455"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Mes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="97142940"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97142940"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Pesos</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="69577455"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>desviación</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-34.8694425637073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-42.5083491251416</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="86272566"/>
-        <c:axId val="48884789"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="86272566"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Mes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="48884789"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="48884789"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Porcentaje</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="86272566"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviacion de esfuerzo %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="4510432"/>
-        <c:axId val="99262572"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="4510432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="99262572"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="99262572"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="4510432"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>apego_interno</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Prospectación</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Garantía</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78.57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="90630137"/>
-        <c:axId val="34407780"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="90630137"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="34407780"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="34407780"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="90630137"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>procesos_organizacional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación anual</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Seguimiento</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cambios</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="38707988"/>
-        <c:axId val="97068992"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="38707988"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="97068992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97068992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="38707988"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviacion de esfuerzo %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="75751264"/>
-        <c:axId val="50504652"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="75751264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="50504652"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50504652"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="75751264"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>proceso</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Cotización</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Solicitud de compra</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Carta de aceptación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tickets de servicio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="98971484"/>
-        <c:axId val="19287053"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="98971484"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="19287053"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="19287053"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="98971484"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>organizacional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Catalogo de servicios</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Plan de calidad</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Plan de Métricas</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Plan de Configuración</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Plan de proyecto</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Reporte de Monitoreo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="1308640"/>
-        <c:axId val="41107141"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1308640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="41107141"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="41107141"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="1308640"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviacion de esfuerzo %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="51401376"/>
-        <c:axId val="78700240"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="51401376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="78700240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="78700240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="51401376"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>física</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Elementos de configuración física</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Control de cambios organizacional</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Línea base</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Elementos de Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="74540785"/>
-        <c:axId val="68338021"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="74540785"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="68338021"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="68338021"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="74540785"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esfuerzo real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviacion de esfuerzo %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeacion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diseño</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Desarrollo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monitoreo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Configuración</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="76935428"/>
-        <c:axId val="8153268"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="76935428"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="8153268"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="8153268"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="76935428"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5825,11 +1590,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="20260911"/>
-        <c:axId val="243880"/>
+        <c:axId val="43104593"/>
+        <c:axId val="93815683"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20260911"/>
+        <c:axId val="43104593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,14 +1610,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="243880"/>
+        <c:crossAx val="93815683"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243880"/>
+        <c:axId val="93815683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5877,7 +1642,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20260911"/>
+        <c:crossAx val="43104593"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5912,7 +1677,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -6163,11 +1928,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39885256"/>
-        <c:axId val="92012857"/>
+        <c:axId val="44360639"/>
+        <c:axId val="84556474"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39885256"/>
+        <c:axId val="44360639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6183,14 +1948,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92012857"/>
+        <c:crossAx val="84556474"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92012857"/>
+        <c:axId val="84556474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6215,7 +1980,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39885256"/>
+        <c:crossAx val="44360639"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6250,7 +2015,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -6387,11 +2152,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="30449093"/>
-        <c:axId val="40832645"/>
+        <c:axId val="54196036"/>
+        <c:axId val="69204355"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30449093"/>
+        <c:axId val="54196036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6407,14 +2172,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40832645"/>
+        <c:crossAx val="69204355"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40832645"/>
+        <c:axId val="69204355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6439,7 +2204,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30449093"/>
+        <c:crossAx val="54196036"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6474,7 +2239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -6611,11 +2376,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="722501"/>
-        <c:axId val="19764909"/>
+        <c:axId val="2634417"/>
+        <c:axId val="97761632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="722501"/>
+        <c:axId val="2634417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6631,14 +2396,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19764909"/>
+        <c:crossAx val="97761632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19764909"/>
+        <c:axId val="97761632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6663,7 +2428,375 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="722501"/>
+        <c:crossAx val="2634417"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Producto mas vendido</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Easy retail</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Contpaq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="82911308"/>
+        <c:axId val="82945429"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82911308"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="82945429"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82945429"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="82911308"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Grafico de actividades</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="68728092"/>
+        <c:axId val="72845350"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68728092"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="72845350"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72845350"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Porcentaje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="68728092"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6703,15 +2836,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>741600</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>647280</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6719,8 +2852,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43642800" y="10099440"/>
-        <a:ext cx="5856840" cy="2878920"/>
+        <a:off x="42012360" y="9010080"/>
+        <a:ext cx="5856480" cy="2878560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6733,15 +2866,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>1480320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>241920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2554920</xdr:colOff>
+      <xdr:colOff>2297520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2207880</xdr:rowOff>
+      <xdr:rowOff>2205720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6749,42 +2882,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="339120" y="753840"/>
-        <a:ext cx="5276160" cy="2213280"/>
+        <a:off x="1671840" y="1003680"/>
+        <a:ext cx="3686040" cy="1963800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2647800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>239040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6784920</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2149920</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5708160" y="998280"/>
-        <a:ext cx="4137120" cy="1910880"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6797,89 +2900,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>690840</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>759240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>658440</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>380880</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1584720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42823080" y="9746280"/>
-        <a:ext cx="7938000" cy="3346200"/>
+        <a:off x="759240" y="769320"/>
+        <a:ext cx="4759200" cy="1577160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2544480</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2345400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="557280" y="1283040"/>
-        <a:ext cx="5047560" cy="2184120"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3031560</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7402320</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2314440</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="6091920" y="1219680"/>
-        <a:ext cx="4370760" cy="2216520"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6892,25 +2935,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>741600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>93600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>780120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>656640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="3 Gráfico"/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="45118440" y="8963640"/>
-        <a:ext cx="5856840" cy="2879280"/>
+        <a:off x="4186800" y="5009040"/>
+        <a:ext cx="5760360" cy="3232080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6922,59 +2965,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>159840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2691360</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1229400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1692360</xdr:rowOff>
+      <xdr:rowOff>2190600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Apego Interno"/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="241200" y="774360"/>
-        <a:ext cx="5510520" cy="1716480"/>
+        <a:off x="159840" y="995400"/>
+        <a:ext cx="5162760" cy="2128320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2952720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7955640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2125080</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="6013080" y="840600"/>
-        <a:ext cx="5002920" cy="2082960"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6987,89 +3000,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>741600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>328320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1994760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="3 Gráfico"/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42189840" y="9182880"/>
-        <a:ext cx="5856840" cy="2878920"/>
+        <a:off x="328320" y="789840"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2086920</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2166120</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="241560" y="935640"/>
-        <a:ext cx="4905720" cy="2182680"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2378160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6247080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2358720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5438520" y="983880"/>
-        <a:ext cx="3868920" cy="2327040"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7082,224 +3035,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>741600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>349920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2199600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="3 Gráfico"/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41709600" y="9104760"/>
-        <a:ext cx="5857200" cy="2878920"/>
+        <a:off x="349920" y="968400"/>
+        <a:ext cx="4362480" cy="2149200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2274480</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2100240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="241560" y="745200"/>
-        <a:ext cx="5093280" cy="2116800"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>741600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="3 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="41985360" y="9019080"/>
-        <a:ext cx="5856840" cy="2878920"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1453320</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>250920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2270880</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2215080</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="1644840" y="1012680"/>
-        <a:ext cx="3686400" cy="1964160"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>732240</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>354240</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1594080</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="732240" y="778320"/>
-        <a:ext cx="4759560" cy="1577520"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="4159800" y="5018040"/>
-        <a:ext cx="5760720" cy="3232440"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1202760</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2199960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="132840" y="1004400"/>
-        <a:ext cx="5163120" cy="2128680"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7313,10 +3071,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7409,99 +3167,115 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18" t="s">
+      <c r="C15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="16" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D16" s="17"/>
+      <c r="E16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7510,6 +3284,514 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2064777327935"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" customFormat="false" ht="184.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="Q6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">AVERAGE(R7:U7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">AVERAGE(R8:U8)</f>
+        <v>4</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="48"/>
+    </row>
+    <row r="10" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="52"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="48"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="53"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="61"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2064777327935"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" customFormat="false" ht="184.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="Q6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">AVERAGE(R7:U7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">AVERAGE(R8:U8)</f>
+        <v>4</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="48"/>
+    </row>
+    <row r="10" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="52"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="48"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="53"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="61"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7539,7 +3821,7 @@
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C3</f>
@@ -8570,10 +4852,10 @@
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -9600,10 +5882,10 @@
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A3" s="0"/>
       <c r="B3" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
@@ -10630,7 +6912,7 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A4" s="0"/>
       <c r="B4" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="0"/>
@@ -12684,7 +8966,7 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="0"/>
@@ -13712,10 +9994,10 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
@@ -14742,10 +11024,10 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -15772,7 +12054,7 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="0"/>
@@ -16800,10 +13082,10 @@
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
@@ -17830,7 +14112,7 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="0"/>
@@ -18858,7 +15140,7 @@
     <row r="12" customFormat="false" ht="115.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="0"/>
@@ -19886,10 +16168,10 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A13" s="0"/>
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -20916,10 +17198,10 @@
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="0"/>
       <c r="B14" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -21946,7 +18228,7 @@
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="0"/>
@@ -22974,10 +19256,10 @@
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A16" s="0"/>
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
@@ -24004,10 +20286,10 @@
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
@@ -25034,10 +21316,10 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="0"/>
       <c r="B18" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -26064,10 +22346,10 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
@@ -27094,7 +23376,7 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A20" s="0"/>
       <c r="B20" s="28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="0"/>
@@ -28121,16 +24403,16 @@
     </row>
     <row r="21" s="29" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B21" s="30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B22" s="31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -28139,10 +24421,10 @@
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -28151,10 +24433,10 @@
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AA24" s="0"/>
       <c r="AB24" s="0"/>
@@ -28241,21 +24523,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB38" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AC38" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -28270,7 +24552,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -28285,7 +24567,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -28300,7 +24582,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -28315,7 +24597,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -28330,7 +24612,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -28345,7 +24627,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -28360,7 +24642,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB46" s="22" t="n">
         <v>23</v>
@@ -28375,7 +24657,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -28407,7 +24689,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28436,7 +24717,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C4</f>
@@ -28449,10 +24730,10 @@
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B2" s="23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -28461,10 +24742,10 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -28473,7 +24754,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B4" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
@@ -28491,7 +24772,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
@@ -28501,10 +24782,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
@@ -28513,10 +24794,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -28525,7 +24806,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -28535,10 +24816,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0"/>
@@ -28547,7 +24828,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -28557,7 +24838,7 @@
     </row>
     <row r="12" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -28567,10 +24848,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -28579,10 +24860,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
@@ -28591,7 +24872,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -28601,10 +24882,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -28613,10 +24894,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -28625,10 +24906,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -28637,10 +24918,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B19" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -28649,7 +24930,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -28659,10 +24940,10 @@
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -28671,10 +24952,10 @@
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -28683,10 +24964,10 @@
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -28779,21 +25060,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB38" s="22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC38" s="22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AB39" s="36" t="n">
         <v>3287</v>
@@ -28808,7 +25089,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB40" s="36" t="n">
         <v>5344</v>
@@ -28823,7 +25104,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB41" s="36" t="n">
         <v>3423</v>
@@ -28838,7 +25119,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB42" s="36" t="n">
         <v>40000</v>
@@ -28853,7 +25134,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB43" s="36" t="n">
         <v>5467</v>
@@ -28868,7 +25149,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AB44" s="36" t="n">
         <v>532</v>
@@ -28883,7 +25164,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AB45" s="36" t="n">
         <v>534</v>
@@ -28898,7 +25179,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB46" s="36" t="n">
         <v>900</v>
@@ -28913,7 +25194,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AB47" s="36" t="n">
         <v>324</v>
@@ -28944,7 +25225,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28973,7 +25253,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C5</f>
@@ -28986,10 +25266,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B2" s="23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -28998,10 +25278,10 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -29010,7 +25290,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B4" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
@@ -29028,7 +25308,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
@@ -29038,10 +25318,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
@@ -29050,10 +25330,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -29062,7 +25342,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -29072,7 +25352,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
@@ -29082,7 +25362,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -29092,7 +25372,7 @@
     </row>
     <row r="12" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -29102,10 +25382,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -29114,10 +25394,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
@@ -29126,7 +25406,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -29136,10 +25416,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -29148,10 +25428,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -29160,10 +25440,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -29172,10 +25452,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B19" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -29184,7 +25464,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -29194,10 +25474,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="39" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -29206,10 +25486,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -29218,10 +25498,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -29314,21 +25594,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB38" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AC38" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -29343,7 +25623,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -29358,7 +25638,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -29373,7 +25653,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -29388,7 +25668,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -29403,7 +25683,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -29418,7 +25698,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -29433,7 +25713,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB46" s="22" t="n">
         <v>23</v>
@@ -29448,7 +25728,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -29479,7 +25759,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29508,7 +25787,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C6</f>
@@ -29521,10 +25800,10 @@
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B2" s="23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -29533,10 +25812,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -29545,7 +25824,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B4" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
@@ -29563,7 +25842,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
@@ -29573,10 +25852,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
@@ -29585,10 +25864,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -29597,7 +25876,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" s="43"/>
       <c r="AA9" s="0"/>
@@ -29607,7 +25886,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" s="43"/>
       <c r="AA10" s="0"/>
@@ -29617,7 +25896,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -29627,7 +25906,7 @@
     </row>
     <row r="12" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -29637,10 +25916,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -29649,10 +25928,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
@@ -29661,7 +25940,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -29671,10 +25950,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -29683,10 +25962,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -29695,10 +25974,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -29707,10 +25986,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B19" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -29719,7 +25998,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -29729,10 +26008,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -29741,10 +26020,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -29753,10 +26032,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -29849,21 +26128,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB38" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AC38" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -29878,7 +26157,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -29893,7 +26172,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -29908,7 +26187,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -29923,7 +26202,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -29938,7 +26217,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -29953,7 +26232,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -29968,7 +26247,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB46" s="22" t="n">
         <v>23</v>
@@ -29983,7 +26262,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -30014,7 +26293,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30043,7 +26321,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C7</f>
@@ -30056,10 +26334,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B2" s="23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -30068,10 +26346,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -30080,7 +26358,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B4" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
@@ -30098,7 +26376,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
@@ -30108,10 +26386,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
@@ -30120,10 +26398,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -30132,7 +26410,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -30142,7 +26420,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
@@ -30152,7 +26430,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -30162,7 +26440,7 @@
     </row>
     <row r="12" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -30172,10 +26450,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -30184,10 +26462,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
@@ -30196,7 +26474,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -30206,10 +26484,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -30218,10 +26496,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -30230,10 +26508,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -30242,10 +26520,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B19" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -30254,7 +26532,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -30264,10 +26542,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -30276,10 +26554,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -30288,10 +26566,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -30384,21 +26662,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB38" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AC38" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -30413,7 +26691,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -30428,7 +26706,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -30443,7 +26721,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -30458,7 +26736,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -30473,7 +26751,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -30488,7 +26766,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -30503,7 +26781,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB46" s="22" t="n">
         <v>23</v>
@@ -30518,7 +26796,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -30549,7 +26827,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30578,7 +26855,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C8</f>
@@ -30591,10 +26868,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B2" s="23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -30603,10 +26880,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -30615,7 +26892,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B4" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
@@ -30633,7 +26910,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
@@ -30643,10 +26920,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
@@ -30655,10 +26932,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -30667,7 +26944,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -30677,7 +26954,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
@@ -30687,7 +26964,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -30697,7 +26974,7 @@
     </row>
     <row r="12" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -30707,10 +26984,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -30719,10 +26996,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
@@ -30731,7 +27008,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -30741,10 +27018,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -30753,10 +27030,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -30765,10 +27042,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -30777,10 +27054,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B19" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -30789,7 +27066,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -30799,10 +27076,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -30811,10 +27088,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -30823,10 +27100,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -30919,21 +27196,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB38" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AC38" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -30948,7 +27225,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -30963,7 +27240,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -30978,7 +27255,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -30993,7 +27270,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -31008,7 +27285,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -31023,7 +27300,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -31038,7 +27315,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB46" s="22" t="n">
         <v>23</v>
@@ -31053,7 +27330,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -31095,7 +27372,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -31108,31 +27385,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="45" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="45" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="48"/>
     </row>
@@ -31142,132 +27419,132 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" s="48"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" s="48"/>
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B15" s="48"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" s="53"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="54" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="55" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="56" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -31312,7 +27589,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="57" t="str">
         <f aca="false">'Objetivos de Medición'!C9</f>
@@ -31321,65 +27598,65 @@
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="58" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="184.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="60" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" s="48"/>
       <c r="Q6" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">AVERAGE(R7:U7)</f>
@@ -31400,13 +27677,13 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">AVERAGE(R8:U8)</f>
@@ -31427,104 +27704,104 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="52" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="61" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="54" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
+++ b/Proyectos/2016/Linea Base/Plan_Métricas_2016.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="167">
   <si>
     <t>Objetivos de Medición</t>
   </si>
@@ -147,16 +147,13 @@
     <t>Esfuerzo planeado</t>
   </si>
   <si>
-    <t>Desviación de Esfuerzo (#tickets)  = Esfuerzo real – Esfuerzo planeado</t>
+    <t>Desviación(%)= ((Esfuerzo real)/Esfuerzo planeado)-1</t>
   </si>
   <si>
     <t>Esfuerzo real</t>
   </si>
   <si>
     <t>Desviación</t>
-  </si>
-  <si>
-    <t>Desviación(%)= ((Esfuerzo real * 100)/Esfuerzo planeado)-100</t>
   </si>
   <si>
     <t>Mecanismo de Recolección y Almacenamiento</t>
@@ -258,13 +255,10 @@
     <t>Costo planeado</t>
   </si>
   <si>
-    <t>Desviación de Costo($)  = costo planeado – costo real</t>
-  </si>
-  <si>
     <t>Costo real</t>
   </si>
   <si>
-    <t>Desviación(%)= ((Costo planeado * 100)/Costo real)-100</t>
+    <t>Desviación(%)= (Costo planeado/Costo real)-1</t>
   </si>
   <si>
     <t>Tomar el costo estimado en el plan de proyecto dividido entre doce meses como costo planeado y tomar el total gastado entre servicios y sueldos de personal registrados en el mes, dicho dato será otorgado por administración aplicar formula de desviación en porcentaje y plasmar en el concentrado de métricas en la pestaña costos.</t>
@@ -480,7 +474,10 @@
     <t>¿Cual es el producto mas vendido en la empresa?                                             </t>
   </si>
   <si>
-    <t>Productos vendidos=(sumatoria del mes por producto)</t>
+    <t>Sumatoria de productos vendidos</t>
+  </si>
+  <si>
+    <t>Productos vendidos=(sumatoria por producto en el año)</t>
   </si>
   <si>
     <t>Ingresar a bitrix en la pestaña CRM , reportes y ventas por productos, los resultados pasarlos al concentrado de métricas en pestaña productos</t>
@@ -507,7 +504,10 @@
     <t>¿Qué porcentaje de actividades se resolvieron en el tiempo planeado?                                             </t>
   </si>
   <si>
-    <t>Porcentaje de actividades a tiempo =(actividades a tiempo entre actividades a tiempo mas actividades fuera de tiempo)*100</t>
+    <t>Actividades a tiempo, actividades totales</t>
+  </si>
+  <si>
+    <t>Porcentaje de actividades a tiempo =(actividades a tiempo /  total de actividades)</t>
   </si>
   <si>
     <t>Ingresar a bitrix24 en los filtros  de actividades de CRM filtrando las actividades por persona y contabilizar las realizadas antes del deadline y adicional las resueltas fuera del dead line, el valor se deberá almacenar en el concentrado de métrica en pestaña actividades</t>
@@ -535,12 +535,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00;[RED]\$#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -624,12 +625,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -656,11 +651,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -948,27 +939,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -980,39 +971,39 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1088,7 +1079,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1405,11 +1396,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="86010434"/>
-        <c:axId val="96082186"/>
+        <c:axId val="8867842"/>
+        <c:axId val="50847618"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86010434"/>
+        <c:axId val="8867842"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,14 +1417,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="96082186"/>
+        <c:crossAx val="50847618"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96082186"/>
+        <c:axId val="50847618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1474,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86010434"/>
+        <c:crossAx val="8867842"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1513,7 +1504,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1590,11 +1581,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="43104593"/>
-        <c:axId val="93815683"/>
+        <c:axId val="47077094"/>
+        <c:axId val="23877714"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43104593"/>
+        <c:axId val="47077094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,14 +1601,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93815683"/>
+        <c:crossAx val="23877714"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93815683"/>
+        <c:axId val="23877714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1633,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43104593"/>
+        <c:crossAx val="47077094"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1677,7 +1668,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1928,11 +1919,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="44360639"/>
-        <c:axId val="84556474"/>
+        <c:axId val="44905834"/>
+        <c:axId val="23725214"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44360639"/>
+        <c:axId val="44905834"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,14 +1939,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84556474"/>
+        <c:crossAx val="23725214"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84556474"/>
+        <c:axId val="23725214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +1971,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44360639"/>
+        <c:crossAx val="44905834"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2015,7 +2006,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2152,11 +2143,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="54196036"/>
-        <c:axId val="69204355"/>
+        <c:axId val="71312120"/>
+        <c:axId val="10238756"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54196036"/>
+        <c:axId val="71312120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,14 +2163,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69204355"/>
+        <c:crossAx val="10238756"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69204355"/>
+        <c:axId val="10238756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2195,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54196036"/>
+        <c:crossAx val="71312120"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2239,254 +2230,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>satisfacción</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junio</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septiembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octubre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diciembre</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>98.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.572</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95.686</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="2634417"/>
-        <c:axId val="97761632"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2634417"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="97761632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97761632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="2634417"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Producto mas vendido</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2515,6 +2262,7 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2553,11 +2301,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82911308"/>
-        <c:axId val="82945429"/>
+        <c:axId val="20352754"/>
+        <c:axId val="24505115"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82911308"/>
+        <c:axId val="20352754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,14 +2321,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82945429"/>
+        <c:crossAx val="24505115"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82945429"/>
+        <c:axId val="24505115"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2353,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82911308"/>
+        <c:crossAx val="20352754"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2640,30 +2388,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Grafico de actividades</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2678,7 +2406,185 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Enero</c:v>
+                  <c:v>Fila 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Actividades en tiempo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Actividades fuera de tiempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="66800833"/>
+        <c:axId val="63652499"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="66800833"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="63652499"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63652499"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="66800833"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2716,7 +2622,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>26.3157894736842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,11 +2630,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="68728092"/>
-        <c:axId val="72845350"/>
+        <c:axId val="69740366"/>
+        <c:axId val="79553874"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68728092"/>
+        <c:axId val="69740366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2744,14 +2650,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72845350"/>
+        <c:crossAx val="79553874"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72845350"/>
+        <c:axId val="79553874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,26 +2672,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Porcentaje</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2796,7 +2682,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68728092"/>
+        <c:crossAx val="69740366"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2836,15 +2722,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>795600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>647280</xdr:colOff>
+      <xdr:colOff>673920</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2852,8 +2738,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42012360" y="9010080"/>
-        <a:ext cx="5856480" cy="2878560"/>
+        <a:off x="42039360" y="9001080"/>
+        <a:ext cx="5856120" cy="2878200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2866,15 +2752,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1480320</xdr:colOff>
+      <xdr:colOff>1507320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>241920</xdr:rowOff>
+      <xdr:rowOff>232920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2297520</xdr:colOff>
+      <xdr:colOff>2324160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2205720</xdr:rowOff>
+      <xdr:rowOff>2196360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2882,8 +2768,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1671840" y="1003680"/>
-        <a:ext cx="3686040" cy="1963800"/>
+        <a:off x="1698840" y="994680"/>
+        <a:ext cx="3685680" cy="1963440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2901,15 +2787,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>759240</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>786240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>380880</xdr:colOff>
+      <xdr:colOff>407520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1584720</xdr:rowOff>
+      <xdr:rowOff>1575360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2917,8 +2803,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="759240" y="769320"/>
-        <a:ext cx="4759200" cy="1577160"/>
+        <a:off x="786240" y="760320"/>
+        <a:ext cx="4758840" cy="1576800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2935,16 +2821,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>780120</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>186840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>656640</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1256040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2181240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2952,42 +2838,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4186800" y="5009040"/>
-        <a:ext cx="5760360" cy="3232080"/>
+        <a:off x="186840" y="986400"/>
+        <a:ext cx="5162400" cy="2127960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>159840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1229400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2190600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="159840" y="995400"/>
-        <a:ext cx="5162760" cy="2128320"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3001,24 +2857,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>328320</xdr:colOff>
+      <xdr:colOff>355320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1994760</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:colOff>1056600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2227320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="328320" y="789840"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="355320" y="780840"/>
+        <a:ext cx="4794480" cy="2205720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3036,15 +2892,45 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>349920</xdr:colOff>
+      <xdr:colOff>196560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>619200</xdr:colOff>
+      <xdr:colOff>1862640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>343440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="196560" y="936720"/>
+        <a:ext cx="5759280" cy="3048840"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1220760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2199600</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4746600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2212920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3052,12 +2938,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="349920" y="968400"/>
-        <a:ext cx="4362480" cy="2149200"/>
+        <a:off x="5313960" y="1085400"/>
+        <a:ext cx="3525840" cy="2045520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3071,7 +2957,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
@@ -3264,6 +3150,7 @@
       <c r="F20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B1:F1"/>
@@ -3295,7 +3182,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3318,7 +3205,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,7 +3213,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +3226,7 @@
       <c r="A5" s="60"/>
       <c r="B5" s="60"/>
       <c r="C5" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3348,19 +3235,19 @@
       </c>
       <c r="B6" s="48"/>
       <c r="Q6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,10 +3255,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">AVERAGE(R7:U7)</f>
@@ -3392,13 +3279,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">AVERAGE(R8:U8)</f>
@@ -3419,27 +3306,27 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>26</v>
@@ -3447,32 +3334,32 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,38 +3372,38 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>154</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3548,8 +3435,8 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3572,7 +3459,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,7 +3467,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,7 +3480,7 @@
       <c r="A5" s="60"/>
       <c r="B5" s="60"/>
       <c r="C5" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3602,19 +3489,19 @@
       </c>
       <c r="B6" s="48"/>
       <c r="Q6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,10 +3509,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">AVERAGE(R7:U7)</f>
@@ -3646,13 +3533,13 @@
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>159</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">AVERAGE(R8:U8)</f>
@@ -3673,7 +3560,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="48"/>
     </row>
@@ -3685,15 +3572,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>26</v>
@@ -3701,32 +3588,32 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,7 +3626,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="53"/>
     </row>
@@ -3754,7 +3641,7 @@
         <v>162</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,8 +3689,8 @@
   </sheetPr>
   <dimension ref="1:47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12051,7 +11938,7 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="27" t="s">
         <v>40</v>
@@ -13084,9 +12971,7 @@
       <c r="B10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="C10" s="18"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -14112,7 +13997,7 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="0"/>
@@ -15140,7 +15025,7 @@
     <row r="12" customFormat="false" ht="115.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="0"/>
@@ -16168,10 +16053,10 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A13" s="0"/>
       <c r="B13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -17198,7 +17083,7 @@
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="0"/>
       <c r="B14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>26</v>
@@ -18228,7 +18113,7 @@
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="0"/>
@@ -19256,10 +19141,10 @@
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A16" s="0"/>
       <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
@@ -20286,10 +20171,10 @@
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
@@ -21316,10 +21201,10 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="0"/>
       <c r="B18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -23376,7 +23261,7 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A20" s="0"/>
       <c r="B20" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="0"/>
@@ -24403,16 +24288,16 @@
     </row>
     <row r="21" s="29" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B21" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -24421,10 +24306,10 @@
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -24433,10 +24318,10 @@
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AA24" s="0"/>
       <c r="AB24" s="0"/>
@@ -24523,7 +24408,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB38" s="22" t="s">
         <v>38</v>
@@ -24532,12 +24417,12 @@
         <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -24552,7 +24437,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -24567,7 +24452,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -24582,7 +24467,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -24597,7 +24482,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -24612,7 +24497,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -24627,7 +24512,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -24657,7 +24542,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -24675,7 +24560,7 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
@@ -24700,7 +24585,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24733,7 +24618,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -24742,10 +24627,10 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -24794,19 +24679,17 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C8" s="18"/>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
       <c r="AC8" s="0"/>
       <c r="AD8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -24819,7 +24702,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0"/>
@@ -24828,7 +24711,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -24838,7 +24721,7 @@
     </row>
     <row r="12" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -24848,10 +24731,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -24860,7 +24743,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>26</v>
@@ -24872,7 +24755,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -24882,10 +24765,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -24894,10 +24777,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -24906,10 +24789,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -24930,7 +24813,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -24940,10 +24823,10 @@
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -24952,10 +24835,10 @@
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -24964,10 +24847,10 @@
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -25060,21 +24943,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB38" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC38" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AC38" s="22" t="s">
-        <v>77</v>
-      </c>
       <c r="AD38" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB39" s="36" t="n">
         <v>3287</v>
@@ -25089,7 +24972,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB40" s="36" t="n">
         <v>5344</v>
@@ -25104,7 +24987,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB41" s="36" t="n">
         <v>3423</v>
@@ -25119,7 +25002,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB42" s="36" t="n">
         <v>40000</v>
@@ -25134,7 +25017,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB43" s="36" t="n">
         <v>5467</v>
@@ -25149,7 +25032,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB44" s="36" t="n">
         <v>532</v>
@@ -25164,7 +25047,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB45" s="36" t="n">
         <v>534</v>
@@ -25194,7 +25077,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB47" s="36" t="n">
         <v>324</v>
@@ -25236,7 +25119,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25269,7 +25152,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -25281,7 +25164,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -25330,10 +25213,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -25342,7 +25225,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -25352,7 +25235,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
@@ -25362,7 +25245,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -25372,7 +25255,7 @@
     </row>
     <row r="12" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -25382,10 +25265,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -25394,7 +25277,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>26</v>
@@ -25406,7 +25289,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -25416,10 +25299,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -25428,10 +25311,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -25440,10 +25323,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -25464,7 +25347,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -25474,10 +25357,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -25486,10 +25369,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -25498,10 +25381,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -25594,7 +25477,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB38" s="22" t="s">
         <v>38</v>
@@ -25603,12 +25486,12 @@
         <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -25623,7 +25506,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -25638,7 +25521,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -25653,7 +25536,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -25668,7 +25551,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -25683,7 +25566,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -25698,7 +25581,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -25728,7 +25611,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -25803,7 +25686,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -25815,7 +25698,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -25864,10 +25747,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -25876,7 +25759,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="43"/>
       <c r="AA9" s="0"/>
@@ -25886,7 +25769,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="43"/>
       <c r="AA10" s="0"/>
@@ -25896,7 +25779,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -25906,7 +25789,7 @@
     </row>
     <row r="12" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -25916,10 +25799,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -25928,7 +25811,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>26</v>
@@ -25940,7 +25823,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -25950,10 +25833,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -25962,10 +25845,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -25974,10 +25857,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -25998,7 +25881,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -26008,10 +25891,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -26020,10 +25903,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -26032,10 +25915,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -26128,7 +26011,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB38" s="22" t="s">
         <v>38</v>
@@ -26137,12 +26020,12 @@
         <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -26157,7 +26040,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -26172,7 +26055,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -26187,7 +26070,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -26202,7 +26085,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -26217,7 +26100,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -26232,7 +26115,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -26262,7 +26145,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -26337,7 +26220,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -26349,7 +26232,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -26398,10 +26281,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -26410,7 +26293,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -26420,7 +26303,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
@@ -26430,7 +26313,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -26440,7 +26323,7 @@
     </row>
     <row r="12" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -26450,10 +26333,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -26462,7 +26345,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>26</v>
@@ -26474,7 +26357,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -26484,10 +26367,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -26496,10 +26379,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -26508,10 +26391,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -26532,7 +26415,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -26542,10 +26425,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -26554,10 +26437,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -26566,10 +26449,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -26662,7 +26545,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB38" s="22" t="s">
         <v>38</v>
@@ -26671,12 +26554,12 @@
         <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -26691,7 +26574,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -26706,7 +26589,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -26721,7 +26604,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -26736,7 +26619,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -26751,7 +26634,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -26766,7 +26649,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -26796,7 +26679,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -26871,7 +26754,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -26880,10 +26763,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -26932,10 +26815,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B8" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -26944,7 +26827,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
@@ -26954,7 +26837,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
@@ -26964,7 +26847,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
@@ -26974,7 +26857,7 @@
     </row>
     <row r="12" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
@@ -26984,10 +26867,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
@@ -26996,7 +26879,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>26</v>
@@ -27008,7 +26891,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
@@ -27018,10 +26901,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
@@ -27030,10 +26913,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -27042,10 +26925,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -27066,7 +26949,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="28"/>
       <c r="AA20" s="0"/>
@@ -27076,10 +26959,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0"/>
@@ -27088,10 +26971,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
@@ -27100,10 +26983,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
@@ -27196,7 +27079,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB38" s="22" t="s">
         <v>38</v>
@@ -27205,12 +27088,12 @@
         <v>40</v>
       </c>
       <c r="AD38" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB39" s="22" t="n">
         <v>100</v>
@@ -27225,7 +27108,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB40" s="22" t="n">
         <v>234</v>
@@ -27240,7 +27123,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB41" s="22" t="n">
         <v>543</v>
@@ -27255,7 +27138,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB42" s="22" t="n">
         <v>342</v>
@@ -27270,7 +27153,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB43" s="22" t="n">
         <v>344</v>
@@ -27285,7 +27168,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB44" s="22" t="n">
         <v>532</v>
@@ -27300,7 +27183,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB45" s="22" t="n">
         <v>534</v>
@@ -27330,7 +27213,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB47" s="22" t="n">
         <v>324</v>
@@ -27373,7 +27256,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27396,7 +27279,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27404,7 +27287,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27428,52 +27311,52 @@
         <v>36</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="48"/>
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>26</v>
@@ -27481,32 +27364,32 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="48"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27519,32 +27402,32 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="53"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -27576,8 +27459,8 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27601,7 +27484,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27609,7 +27492,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27620,11 +27503,11 @@
     </row>
     <row r="5" customFormat="false" ht="184.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27633,19 +27516,19 @@
       </c>
       <c r="B6" s="48"/>
       <c r="Q6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27653,10 +27536,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">AVERAGE(R7:U7)</f>
@@ -27677,13 +27560,13 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="false">AVERAGE(R8:U8)</f>
@@ -27704,27 +27587,27 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>26</v>
@@ -27732,32 +27615,32 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27770,38 +27653,38 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
